--- a/20_営業/07_会計/TE030/T_TE030_CFO_019_A14_01_電子帳簿残高の情報系システム連携_OIC統合.xlsx
+++ b/20_営業/07_会計/TE030/T_TE030_CFO_019_A14_01_電子帳簿残高の情報系システム連携_OIC統合.xlsx
@@ -5,11 +5,11 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\itoenfile\system\30.SCSK\89_SaaS対応\20_ERPCloud導入\30_テストフェーズ\40_開発残課題\02_BIPのパフォーマンス課題対応\20_恒久対応\20_対応中\XXCFO019A14_01\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\acomsv01\障害対応\E_本稼動_19901～20000\E_本稼動_19992【共通】OIC3アップグレード対応\20_成果物\TE030\無影響確認\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="7800" windowWidth="23040" windowHeight="8340" tabRatio="741"/>
+    <workbookView xWindow="0" yWindow="9000" windowWidth="23040" windowHeight="8340" tabRatio="741"/>
   </bookViews>
   <sheets>
     <sheet name="表紙" sheetId="2" r:id="rId1"/>
@@ -23,8 +23,9 @@
     <sheet name="テスト仕様_テスト結果(テスト・シナリオ3) " sheetId="11" r:id="rId9"/>
     <sheet name="テスト仕様_テスト結果(テスト・シナリオ4)" sheetId="12" r:id="rId10"/>
     <sheet name="テスト仕様_テスト結果(テスト・シナリオ5)" sheetId="14" r:id="rId11"/>
-    <sheet name="不具合ログ" sheetId="7" r:id="rId12"/>
-    <sheet name="未完了の課題と完了済みの課題" sheetId="8" r:id="rId13"/>
+    <sheet name="テスト仕様_テスト結果(テスト・シナリオ6)" sheetId="15" r:id="rId12"/>
+    <sheet name="不具合ログ" sheetId="7" r:id="rId13"/>
+    <sheet name="未完了の課題と完了済みの課題" sheetId="8" r:id="rId14"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="3">テスト・シナリオ一覧!$A$1:$F$19</definedName>
@@ -35,11 +36,12 @@
     <definedName name="_xlnm.Print_Area" localSheetId="8">'テスト仕様_テスト結果(テスト・シナリオ3) '!$A$1:$I$45</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="9">'テスト仕様_テスト結果(テスト・シナリオ4)'!$A$1:$I$47</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="10">'テスト仕様_テスト結果(テスト・シナリオ5)'!$A$1:$I$47</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="11">'テスト仕様_テスト結果(テスト・シナリオ6)'!$A$1:$I$26</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="2">作成上の注意点!$A$1:$M$37</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">表紙!$A$1:$H$29</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="1">文書管理!$A$1:$I$16</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="1">文書管理!$A$1:$I$17</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -49,7 +51,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="405" uniqueCount="202">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="450" uniqueCount="222">
   <si>
     <t>株式会社伊藤園</t>
     <phoneticPr fontId="5"/>
@@ -972,10 +974,6 @@
   </si>
   <si>
     <t>Issue化</t>
-  </si>
-  <si>
-    <t>Issue1.1</t>
-    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>Issue1.1</t>
@@ -1320,17 +1318,158 @@
     <t>OK</t>
     <phoneticPr fontId="3"/>
   </si>
+  <si>
+    <t>Issue1.2</t>
+  </si>
+  <si>
+    <t>Issue1.2</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>SCSK 佐藤勇樹</t>
+    <rPh sb="5" eb="9">
+      <t>サトウユウキ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>シナリオ6</t>
+  </si>
+  <si>
+    <t>OIC3アップグレード 無影響確認テスト(DBへのCUID・共通処理動作確認)</t>
+  </si>
+  <si>
+    <t>XXCFO019A14_01(電子帳簿残高の情報系システム連携)</t>
+    <rPh sb="15" eb="19">
+      <t>デンシチョウボ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>ザンダカ</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="24" eb="25">
+      <t>ケイ</t>
+    </rPh>
+    <rPh sb="29" eb="31">
+      <t>レンケイ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>正常終了する。</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>XXCFO019A14_01から共通処理XXCCD002が実行され、正常終了する。</t>
+    <rPh sb="16" eb="20">
+      <t>キョウツウショリ</t>
+    </rPh>
+    <rPh sb="29" eb="31">
+      <t>ジッコウ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t xml:space="preserve">以下のパラメータでXXCFO019A14_01を起動する
+{
+  "paramList" : "2,500000"
+}
+</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>6-1</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>6-2</t>
+  </si>
+  <si>
+    <t>6-3</t>
+  </si>
+  <si>
+    <t>テスト・シナリオ6</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>左記の通り</t>
+    <rPh sb="0" eb="2">
+      <t>サキ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>トオ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>T_TE030_CFO_019_A14_01_電子帳簿残高の情報系システム連携_OIC統合_エビデンス(シナリオ6).xlsx</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>6-4</t>
+  </si>
+  <si>
+    <t>XXCCD002(有効会計期間取得)</t>
+    <rPh sb="9" eb="11">
+      <t>ユウコウ</t>
+    </rPh>
+    <rPh sb="11" eb="15">
+      <t>カイケイキカン</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>シュトク</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>XXCCD002(業務日付取得)</t>
+    <rPh sb="9" eb="11">
+      <t>ギョウム</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ヒヅケ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>シュトク</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>XXCCD002(猶予日数取得)</t>
+    <rPh sb="9" eb="11">
+      <t>ユウヨ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ニッスウ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>シュトク</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>佐藤</t>
+    <rPh sb="0" eb="2">
+      <t>サトウ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>E_本稼働_19992 OICアップグレード対応 無影響確認</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="3">
     <numFmt numFmtId="176" formatCode="mmmm\ dd\,\ yyyy"/>
     <numFmt numFmtId="177" formatCode="mmm\ dd\ yyyy"/>
     <numFmt numFmtId="178" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
   </numFmts>
-  <fonts count="27">
+  <fonts count="29" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1526,6 +1665,21 @@
       <family val="3"/>
       <charset val="128"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <color rgb="FFFF00FF"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FFFF00FF"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="major"/>
+    </font>
   </fonts>
   <fills count="9">
     <fill>
@@ -1576,7 +1730,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="49">
+  <borders count="50">
     <border>
       <left/>
       <right/>
@@ -2186,6 +2340,17 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -2199,7 +2364,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="141">
+  <cellXfs count="148">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2558,6 +2723,27 @@
     <xf numFmtId="0" fontId="25" fillId="0" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="29" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="27" fillId="0" borderId="21" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="49" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -2602,6 +2788,8 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FFFF99CC"/>
+      <color rgb="FFFF00FF"/>
       <color rgb="FF0000FF"/>
       <color rgb="FFC0C0C0"/>
     </mruColors>
@@ -7239,6 +7427,731 @@
         <a:xfrm>
           <a:off x="28575" y="30184725"/>
           <a:ext cx="3400425" cy="466725"/>
+        </a:xfrm>
+        <a:prstGeom prst="foldedCorner">
+          <a:avLst>
+            <a:gd name="adj" fmla="val 12500"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="FFFF00" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="13"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+        <a:effectLst/>
+        <a:extLst>
+          <a:ext uri="{AF507438-7753-43E0-B8FC-AC1667EBCBE1}">
+            <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:effectLst>
+                <a:outerShdw dist="35921" dir="2700000" algn="ctr" rotWithShape="0">
+                  <a:srgbClr val="808080"/>
+                </a:outerShdw>
+              </a:effectLst>
+            </a14:hiddenEffects>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="0" anchor="t" upright="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:lnSpc>
+              <a:spcPts val="1300"/>
+            </a:lnSpc>
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ Ｐゴシック"/>
+              <a:ea typeface="ＭＳ Ｐゴシック"/>
+            </a:rPr>
+            <a:t>ノート: 他に添付するエビデンスなどがあれば</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:lnSpc>
+              <a:spcPts val="1200"/>
+            </a:lnSpc>
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ Ｐゴシック"/>
+              <a:ea typeface="ＭＳ Ｐゴシック"/>
+            </a:rPr>
+            <a:t>         記述します。</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData fPrintsWithSheet="0"/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing8.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="absolute">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>176</xdr:row>
+      <xdr:rowOff>83820</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>1171575</xdr:colOff>
+      <xdr:row>192</xdr:row>
+      <xdr:rowOff>11430</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="AutoShape 1"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="251460" y="30518100"/>
+          <a:ext cx="6939915" cy="2609850"/>
+        </a:xfrm>
+        <a:prstGeom prst="foldedCorner">
+          <a:avLst>
+            <a:gd name="adj" fmla="val 12500"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="FFFF00" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="13"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+        <a:effectLst/>
+        <a:extLst>
+          <a:ext uri="{AF507438-7753-43E0-B8FC-AC1667EBCBE1}">
+            <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:effectLst>
+                <a:outerShdw dist="35921" dir="2700000" algn="ctr" rotWithShape="0">
+                  <a:srgbClr val="808080"/>
+                </a:outerShdw>
+              </a:effectLst>
+            </a14:hiddenEffects>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="0" anchor="t" upright="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:lnSpc>
+              <a:spcPts val="1300"/>
+            </a:lnSpc>
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ Ｐゴシック"/>
+              <a:ea typeface="ＭＳ Ｐゴシック"/>
+            </a:rPr>
+            <a:t>【TE.020作成時の注意点】</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:lnSpc>
+              <a:spcPts val="1300"/>
+            </a:lnSpc>
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ Ｐゴシック"/>
+              <a:ea typeface="ＭＳ Ｐゴシック"/>
+            </a:rPr>
+            <a:t>ノート: テスト・シナリオ毎のテスト・ステップを記載して下さい。コンカレント・プログラムの場合は各プロセスの内部処理、</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:lnSpc>
+              <a:spcPts val="1300"/>
+            </a:lnSpc>
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ Ｐゴシック"/>
+              <a:ea typeface="ＭＳ Ｐゴシック"/>
+            </a:rPr>
+            <a:t>        画面の場合は各機能の内部処理で、結果が分岐しうる処理を網羅するようにして下さい。</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:lnSpc>
+              <a:spcPts val="1300"/>
+            </a:lnSpc>
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ Ｐゴシック"/>
+              <a:ea typeface="ＭＳ Ｐゴシック"/>
+            </a:rPr>
+            <a:t>ノート: 「テスト内容」には、テスト・ステップ毎のテスト内容を記載して下さい。また、記載の上の注意は、以下を参照して下さい。</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:lnSpc>
+              <a:spcPts val="1300"/>
+            </a:lnSpc>
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ Ｐゴシック"/>
+              <a:ea typeface="ＭＳ Ｐゴシック"/>
+            </a:rPr>
+            <a:t>             ・処理が分岐しうる条件を、カラム名単位で詳細に記載して下さい。その際、カラム名は、</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:lnSpc>
+              <a:spcPts val="1300"/>
+            </a:lnSpc>
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ Ｐゴシック"/>
+              <a:ea typeface="ＭＳ Ｐゴシック"/>
+            </a:rPr>
+            <a:t>               検証のポイントとなるカラムを選択して記載して下さい。</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:lnSpc>
+              <a:spcPts val="1300"/>
+            </a:lnSpc>
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ Ｐゴシック"/>
+              <a:ea typeface="ＭＳ Ｐゴシック"/>
+            </a:rPr>
+            <a:t>　                 例：○○フラグ＝'Y'によって抽出対象となる事を確認</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:lnSpc>
+              <a:spcPts val="1300"/>
+            </a:lnSpc>
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ Ｐゴシック"/>
+              <a:ea typeface="ＭＳ Ｐゴシック"/>
+            </a:rPr>
+            <a:t>             ・データ取得ロジック(SELECT文)を確認する場合、SELECTできないケースも記載して下さい。</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:lnSpc>
+              <a:spcPts val="1300"/>
+            </a:lnSpc>
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ Ｐゴシック"/>
+              <a:ea typeface="ＭＳ Ｐゴシック"/>
+            </a:rPr>
+            <a:t>             ・１データを複数のテスト・ステップで使用する場合、以下の例を参考に記載して下さい。</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:lnSpc>
+              <a:spcPts val="1300"/>
+            </a:lnSpc>
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ Ｐゴシック"/>
+              <a:ea typeface="ＭＳ Ｐゴシック"/>
+            </a:rPr>
+            <a:t>                   例：シナリオX-Xと同時検証</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:lnSpc>
+              <a:spcPts val="1300"/>
+            </a:lnSpc>
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ Ｐゴシック"/>
+              <a:ea typeface="ＭＳ Ｐゴシック"/>
+            </a:rPr>
+            <a:t>ノート: 「テスト対象機能」には、「MD.050機能拡張に当っての機能設計書」（または「MD.070 機能拡張にあたっての</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:lnSpc>
+              <a:spcPts val="1300"/>
+            </a:lnSpc>
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ Ｐゴシック"/>
+              <a:ea typeface="ＭＳ Ｐゴシック"/>
+            </a:rPr>
+            <a:t>        技術設計書」）で定義される「機能番号」および「機能名」を記載して下さい。</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ Ｐゴシック"/>
+              <a:ea typeface="ＭＳ Ｐゴシック"/>
+            </a:rPr>
+            <a:t>ノート: 画面テストの際に画面から入力する値は、「テスト内容」欄に記載して下さい。</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:lnSpc>
+              <a:spcPts val="1200"/>
+            </a:lnSpc>
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ Ｐゴシック"/>
+              <a:ea typeface="ＭＳ Ｐゴシック"/>
+            </a:rPr>
+            <a:t>ノート: コンカレント、共通関数のテスト実施の際に使用するパラメータは、「テスト内容」欄に記載して下さい。</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData fPrintsWithSheet="0"/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="absolute">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>192</xdr:row>
+      <xdr:rowOff>102870</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>1171575</xdr:colOff>
+      <xdr:row>209</xdr:row>
+      <xdr:rowOff>55245</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="AutoShape 2"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="251460" y="33219390"/>
+          <a:ext cx="6939915" cy="2802255"/>
+        </a:xfrm>
+        <a:prstGeom prst="foldedCorner">
+          <a:avLst>
+            <a:gd name="adj" fmla="val 12500"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="FFFF00" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="13"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+        <a:effectLst/>
+        <a:extLst>
+          <a:ext uri="{AF507438-7753-43E0-B8FC-AC1667EBCBE1}">
+            <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:effectLst>
+                <a:outerShdw dist="35921" dir="2700000" algn="ctr" rotWithShape="0">
+                  <a:srgbClr val="808080"/>
+                </a:outerShdw>
+              </a:effectLst>
+            </a14:hiddenEffects>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="0" anchor="t" upright="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:lnSpc>
+              <a:spcPts val="1300"/>
+            </a:lnSpc>
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ Ｐゴシック"/>
+              <a:ea typeface="ＭＳ Ｐゴシック"/>
+            </a:rPr>
+            <a:t>【TE.070作成時の注意点】</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:lnSpc>
+              <a:spcPts val="1300"/>
+            </a:lnSpc>
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ Ｐゴシック"/>
+              <a:ea typeface="ＭＳ Ｐゴシック"/>
+            </a:rPr>
+            <a:t>ノート: テスト結果表に単体テスト結果を記載する際には、次のガイドラインに従います。</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:lnSpc>
+              <a:spcPts val="1300"/>
+            </a:lnSpc>
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ Ｐゴシック"/>
+              <a:ea typeface="ＭＳ Ｐゴシック"/>
+            </a:rPr>
+            <a:t>            1）予想結果: 成否判定が可能な予想される結果または出力を記載します。</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:lnSpc>
+              <a:spcPts val="1300"/>
+            </a:lnSpc>
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ Ｐゴシック"/>
+              <a:ea typeface="ＭＳ Ｐゴシック"/>
+            </a:rPr>
+            <a:t>                    例：○○フラグ＝'Y'により抽出対象となる、××IDが不一致のため更新対象外となる</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:lnSpc>
+              <a:spcPts val="1300"/>
+            </a:lnSpc>
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ Ｐゴシック"/>
+              <a:ea typeface="ＭＳ Ｐゴシック"/>
+            </a:rPr>
+            <a:t>            2）実際の結果: 実際にテスト・ステップで定義された内容でテストを実施した際の、</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:lnSpc>
+              <a:spcPts val="1300"/>
+            </a:lnSpc>
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ Ｐゴシック"/>
+              <a:ea typeface="ＭＳ Ｐゴシック"/>
+            </a:rPr>
+            <a:t>               予想結果に対応する実際の結果または出力を記載します。</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:lnSpc>
+              <a:spcPts val="1300"/>
+            </a:lnSpc>
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ Ｐゴシック"/>
+              <a:ea typeface="ＭＳ Ｐゴシック"/>
+            </a:rPr>
+            <a:t>            3）判定: 予想結果と実際の結果を比較し、テストの成否を判定した結果を以下の3つの記号で記載します。</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:lnSpc>
+              <a:spcPts val="1300"/>
+            </a:lnSpc>
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ Ｐゴシック"/>
+              <a:ea typeface="ＭＳ Ｐゴシック"/>
+            </a:rPr>
+            <a:t>            　　・○: テスト成功</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:lnSpc>
+              <a:spcPts val="1300"/>
+            </a:lnSpc>
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ Ｐゴシック"/>
+              <a:ea typeface="ＭＳ Ｐゴシック"/>
+            </a:rPr>
+            <a:t>            　　・×: テスト失敗</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:lnSpc>
+              <a:spcPts val="1300"/>
+            </a:lnSpc>
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ Ｐゴシック"/>
+              <a:ea typeface="ＭＳ Ｐゴシック"/>
+            </a:rPr>
+            <a:t>            　　・－: 対象外（前ステップでテストが失敗し、テストが実施できなかったような場合に使用します。）</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:lnSpc>
+              <a:spcPts val="1300"/>
+            </a:lnSpc>
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ Ｐゴシック"/>
+              <a:ea typeface="ＭＳ Ｐゴシック"/>
+            </a:rPr>
+            <a:t>            4）テスター: テスト実施者名を記載します。</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:lnSpc>
+              <a:spcPts val="1300"/>
+            </a:lnSpc>
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ Ｐゴシック"/>
+              <a:ea typeface="ＭＳ Ｐゴシック"/>
+            </a:rPr>
+            <a:t>            5）実施日: テスト実施日の年月日を記載します。</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:lnSpc>
+              <a:spcPts val="1300"/>
+            </a:lnSpc>
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ Ｐゴシック"/>
+              <a:ea typeface="ＭＳ Ｐゴシック"/>
+            </a:rPr>
+            <a:t>ノート: パフォーマンス・テスト用のテスト・シナリオの場合、「予想結果」、「実際の結果」に処理時間を記載して下さい。</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:lnSpc>
+              <a:spcPts val="1300"/>
+            </a:lnSpc>
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ Ｐゴシック"/>
+              <a:ea typeface="ＭＳ Ｐゴシック"/>
+            </a:rPr>
+            <a:t>ノート: 再テストの場合、行を挿入して再テスト結果を記載してください。</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData fPrintsWithSheet="0"/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="absolute">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>171</xdr:row>
+      <xdr:rowOff>102870</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>2447925</xdr:colOff>
+      <xdr:row>174</xdr:row>
+      <xdr:rowOff>55245</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="AutoShape 3"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="28575" y="29698950"/>
+          <a:ext cx="3303270" cy="455295"/>
         </a:xfrm>
         <a:prstGeom prst="foldedCorner">
           <a:avLst>
@@ -7583,7 +8496,7 @@
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="9" style="2"/>
     <col min="2" max="2" width="10.75" style="2" customWidth="1"/>
@@ -7593,7 +8506,7 @@
     <col min="6" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:8" ht="12" customHeight="1">
+    <row r="3" spans="2:8" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
@@ -7601,7 +8514,7 @@
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
     </row>
-    <row r="4" spans="2:8" ht="6" customHeight="1">
+    <row r="4" spans="2:8" ht="6" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -7610,7 +8523,7 @@
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
     </row>
-    <row r="5" spans="2:8" ht="21">
+    <row r="5" spans="2:8" ht="21" x14ac:dyDescent="0.15">
       <c r="B5" s="3"/>
       <c r="C5" s="4"/>
       <c r="D5" s="4"/>
@@ -7619,67 +8532,67 @@
       <c r="G5" s="4"/>
       <c r="H5" s="4"/>
     </row>
-    <row r="6" spans="2:8" ht="64.150000000000006" customHeight="1">
-      <c r="B6" s="130" t="s">
+    <row r="6" spans="2:8" ht="64.150000000000006" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B6" s="137" t="s">
         <v>67</v>
       </c>
-      <c r="C6" s="130"/>
-      <c r="D6" s="130"/>
-      <c r="E6" s="130"/>
-      <c r="F6" s="130"/>
-      <c r="G6" s="130"/>
-      <c r="H6" s="130"/>
-    </row>
-    <row r="7" spans="2:8" ht="6" customHeight="1">
+      <c r="C6" s="137"/>
+      <c r="D6" s="137"/>
+      <c r="E6" s="137"/>
+      <c r="F6" s="137"/>
+      <c r="G6" s="137"/>
+      <c r="H6" s="137"/>
+    </row>
+    <row r="7" spans="2:8" ht="6" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B7" s="5"/>
     </row>
-    <row r="8" spans="2:8" ht="6" customHeight="1">
+    <row r="8" spans="2:8" ht="6" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B8" s="5"/>
     </row>
-    <row r="9" spans="2:8" ht="58.5" customHeight="1">
-      <c r="B9" s="131" t="s">
+    <row r="9" spans="2:8" ht="58.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B9" s="138" t="s">
         <v>0</v>
       </c>
-      <c r="C9" s="131"/>
-      <c r="D9" s="131"/>
-      <c r="E9" s="131"/>
-      <c r="F9" s="131"/>
-      <c r="G9" s="131"/>
-      <c r="H9" s="131"/>
-    </row>
-    <row r="10" spans="2:8" ht="6" customHeight="1">
+      <c r="C9" s="138"/>
+      <c r="D9" s="138"/>
+      <c r="E9" s="138"/>
+      <c r="F9" s="138"/>
+      <c r="G9" s="138"/>
+      <c r="H9" s="138"/>
+    </row>
+    <row r="10" spans="2:8" ht="6" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B10" s="5"/>
     </row>
-    <row r="11" spans="2:8" ht="58.5" customHeight="1">
-      <c r="B11" s="131" t="s">
+    <row r="11" spans="2:8" ht="58.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B11" s="138" t="s">
         <v>6</v>
       </c>
-      <c r="C11" s="131"/>
-      <c r="D11" s="131"/>
-      <c r="E11" s="131"/>
-      <c r="F11" s="131"/>
-      <c r="G11" s="131"/>
-      <c r="H11" s="131"/>
-    </row>
-    <row r="12" spans="2:8" ht="6" customHeight="1"/>
-    <row r="13" spans="2:8" ht="58.5" customHeight="1">
-      <c r="B13" s="131" t="s">
+      <c r="C11" s="138"/>
+      <c r="D11" s="138"/>
+      <c r="E11" s="138"/>
+      <c r="F11" s="138"/>
+      <c r="G11" s="138"/>
+      <c r="H11" s="138"/>
+    </row>
+    <row r="12" spans="2:8" ht="6" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="13" spans="2:8" ht="58.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B13" s="138" t="s">
         <v>88</v>
       </c>
-      <c r="C13" s="131"/>
-      <c r="D13" s="131"/>
-      <c r="E13" s="131"/>
-      <c r="F13" s="131"/>
-      <c r="G13" s="131"/>
-      <c r="H13" s="131"/>
-    </row>
-    <row r="14" spans="2:8">
+      <c r="C13" s="138"/>
+      <c r="D13" s="138"/>
+      <c r="E13" s="138"/>
+      <c r="F13" s="138"/>
+      <c r="G13" s="138"/>
+      <c r="H13" s="138"/>
+    </row>
+    <row r="14" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B14" s="6"/>
     </row>
-    <row r="15" spans="2:8">
+    <row r="15" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B15" s="6"/>
     </row>
-    <row r="16" spans="2:8">
+    <row r="16" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B16" s="6" t="s">
         <v>1</v>
       </c>
@@ -7687,11 +8600,11 @@
         <v>89</v>
       </c>
     </row>
-    <row r="17" spans="1:8" ht="6" customHeight="1">
+    <row r="17" spans="1:8" ht="6" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B17" s="6"/>
       <c r="C17" s="6"/>
     </row>
-    <row r="18" spans="1:8">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B18" s="6" t="s">
         <v>2</v>
       </c>
@@ -7699,23 +8612,23 @@
         <v>44942</v>
       </c>
     </row>
-    <row r="19" spans="1:8" ht="6" customHeight="1">
+    <row r="19" spans="1:8" ht="6" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B19" s="6"/>
       <c r="C19" s="8"/>
     </row>
-    <row r="20" spans="1:8">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B20" s="6" t="s">
         <v>3</v>
       </c>
       <c r="C20" s="7">
-        <v>44993</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" ht="6" customHeight="1">
+        <v>45561</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" ht="6" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B21" s="6"/>
       <c r="C21" s="6"/>
     </row>
-    <row r="22" spans="1:8">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B22" s="6" t="s">
         <v>73</v>
       </c>
@@ -7723,25 +8636,25 @@
         <v>90</v>
       </c>
     </row>
-    <row r="23" spans="1:8" ht="6" customHeight="1">
+    <row r="23" spans="1:8" ht="6" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B23" s="6"/>
       <c r="C23" s="6"/>
     </row>
-    <row r="24" spans="1:8">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B24" s="6" t="s">
         <v>4</v>
       </c>
       <c r="C24" s="6" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B25" s="6"/>
     </row>
-    <row r="26" spans="1:8">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B26" s="6"/>
     </row>
-    <row r="28" spans="1:8" ht="12" customHeight="1">
+    <row r="28" spans="1:8" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="9"/>
       <c r="B28" s="9"/>
       <c r="C28" s="10"/>
@@ -7753,7 +8666,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="29" spans="1:8" ht="12" customHeight="1">
+    <row r="29" spans="1:8" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="9"/>
       <c r="B29" s="9"/>
       <c r="C29" s="9"/>
@@ -7791,7 +8704,7 @@
       <selection pane="bottomLeft" activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="3.125" style="27" customWidth="1"/>
     <col min="2" max="2" width="9.75" style="27" customWidth="1"/>
@@ -7804,7 +8717,7 @@
     <col min="10" max="16384" width="9" style="27"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="6" customHeight="1">
+    <row r="1" spans="1:9" ht="6" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="31"/>
       <c r="B1" s="31"/>
       <c r="C1" s="31"/>
@@ -7815,35 +8728,35 @@
       <c r="H1" s="36"/>
       <c r="I1" s="36"/>
     </row>
-    <row r="2" spans="1:9" ht="17.25">
+    <row r="2" spans="1:9" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A2" s="26" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="4" spans="1:9">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B4" s="33" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="5" spans="1:9">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B5" s="25" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="6" spans="1:9">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B6" s="25"/>
     </row>
-    <row r="8" spans="1:9">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B8" s="37" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="14.25" thickBot="1">
+    <row r="9" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B9" s="25" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="14.25" thickBot="1">
+    <row r="10" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B10" s="105" t="s">
         <v>41</v>
       </c>
@@ -7869,7 +8782,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="21">
+    <row r="11" spans="1:9" ht="21" x14ac:dyDescent="0.15">
       <c r="A11" s="38"/>
       <c r="B11" s="123" t="s">
         <v>146</v>
@@ -7884,7 +8797,7 @@
       <c r="H11" s="118"/>
       <c r="I11" s="125"/>
     </row>
-    <row r="12" spans="1:9" ht="84">
+    <row r="12" spans="1:9" ht="84" x14ac:dyDescent="0.15">
       <c r="B12" s="123" t="s">
         <v>148</v>
       </c>
@@ -7910,7 +8823,7 @@
         <v>44945</v>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="52.5">
+    <row r="13" spans="1:9" ht="52.5" x14ac:dyDescent="0.15">
       <c r="B13" s="123"/>
       <c r="C13" s="124"/>
       <c r="D13" s="119"/>
@@ -7930,7 +8843,7 @@
         <v>44945</v>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="42">
+    <row r="14" spans="1:9" ht="42" x14ac:dyDescent="0.15">
       <c r="B14" s="123"/>
       <c r="C14" s="46"/>
       <c r="D14" s="119"/>
@@ -7950,7 +8863,7 @@
         <v>44945</v>
       </c>
     </row>
-    <row r="15" spans="1:9" ht="52.5">
+    <row r="15" spans="1:9" ht="52.5" x14ac:dyDescent="0.15">
       <c r="B15" s="123"/>
       <c r="C15" s="124"/>
       <c r="D15" s="119"/>
@@ -7970,7 +8883,7 @@
         <v>44945</v>
       </c>
     </row>
-    <row r="16" spans="1:9">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B16" s="123"/>
       <c r="C16" s="46"/>
       <c r="D16" s="119"/>
@@ -7980,7 +8893,7 @@
       <c r="H16" s="46"/>
       <c r="I16" s="76"/>
     </row>
-    <row r="17" spans="1:9">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B17" s="123"/>
       <c r="C17" s="124"/>
       <c r="D17" s="119"/>
@@ -7990,7 +8903,7 @@
       <c r="H17" s="46"/>
       <c r="I17" s="76"/>
     </row>
-    <row r="18" spans="1:9">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B18" s="123"/>
       <c r="C18" s="46"/>
       <c r="D18" s="119"/>
@@ -8000,7 +8913,7 @@
       <c r="H18" s="46"/>
       <c r="I18" s="76"/>
     </row>
-    <row r="19" spans="1:9">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B19" s="123"/>
       <c r="C19" s="46"/>
       <c r="D19" s="119"/>
@@ -8010,7 +8923,7 @@
       <c r="H19" s="46"/>
       <c r="I19" s="76"/>
     </row>
-    <row r="20" spans="1:9">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A20" s="38"/>
       <c r="B20" s="123"/>
       <c r="C20" s="46"/>
@@ -8021,7 +8934,7 @@
       <c r="H20" s="57"/>
       <c r="I20" s="76"/>
     </row>
-    <row r="21" spans="1:9">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A21" s="38"/>
       <c r="B21" s="123"/>
       <c r="C21" s="46"/>
@@ -8032,7 +8945,7 @@
       <c r="H21" s="57"/>
       <c r="I21" s="76"/>
     </row>
-    <row r="22" spans="1:9">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B22" s="123"/>
       <c r="C22" s="46"/>
       <c r="D22" s="119"/>
@@ -8042,7 +8955,7 @@
       <c r="H22" s="46"/>
       <c r="I22" s="76"/>
     </row>
-    <row r="23" spans="1:9">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A23" s="38"/>
       <c r="B23" s="123"/>
       <c r="C23" s="46"/>
@@ -8053,7 +8966,7 @@
       <c r="H23" s="57"/>
       <c r="I23" s="76"/>
     </row>
-    <row r="24" spans="1:9">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A24" s="38"/>
       <c r="B24" s="123"/>
       <c r="C24" s="46"/>
@@ -8064,7 +8977,7 @@
       <c r="H24" s="57"/>
       <c r="I24" s="76"/>
     </row>
-    <row r="25" spans="1:9">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B25" s="123"/>
       <c r="C25" s="46"/>
       <c r="D25" s="119"/>
@@ -8074,7 +8987,7 @@
       <c r="H25" s="46"/>
       <c r="I25" s="76"/>
     </row>
-    <row r="26" spans="1:9">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B26" s="123"/>
       <c r="C26" s="46"/>
       <c r="D26" s="46"/>
@@ -8084,7 +8997,7 @@
       <c r="H26" s="46"/>
       <c r="I26" s="76"/>
     </row>
-    <row r="27" spans="1:9">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B27" s="64"/>
       <c r="C27" s="46"/>
       <c r="D27" s="46"/>
@@ -8094,7 +9007,7 @@
       <c r="H27" s="46"/>
       <c r="I27" s="76"/>
     </row>
-    <row r="28" spans="1:9">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B28" s="64"/>
       <c r="C28" s="46"/>
       <c r="D28" s="46"/>
@@ -8104,7 +9017,7 @@
       <c r="H28" s="46"/>
       <c r="I28" s="76"/>
     </row>
-    <row r="29" spans="1:9">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B29" s="64"/>
       <c r="C29" s="46"/>
       <c r="D29" s="46"/>
@@ -8114,7 +9027,7 @@
       <c r="H29" s="46"/>
       <c r="I29" s="76"/>
     </row>
-    <row r="30" spans="1:9">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B30" s="64"/>
       <c r="C30" s="46"/>
       <c r="D30" s="46"/>
@@ -8124,7 +9037,7 @@
       <c r="H30" s="46"/>
       <c r="I30" s="76"/>
     </row>
-    <row r="31" spans="1:9">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B31" s="64"/>
       <c r="C31" s="117"/>
       <c r="D31" s="46"/>
@@ -8134,7 +9047,7 @@
       <c r="H31" s="46"/>
       <c r="I31" s="76"/>
     </row>
-    <row r="32" spans="1:9">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B32" s="64"/>
       <c r="C32" s="46"/>
       <c r="D32" s="46"/>
@@ -8144,7 +9057,7 @@
       <c r="H32" s="46"/>
       <c r="I32" s="76"/>
     </row>
-    <row r="33" spans="1:9">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B33" s="68"/>
       <c r="C33" s="46"/>
       <c r="D33" s="46"/>
@@ -8154,7 +9067,7 @@
       <c r="H33" s="46"/>
       <c r="I33" s="76"/>
     </row>
-    <row r="34" spans="1:9">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B34" s="68"/>
       <c r="C34" s="46"/>
       <c r="D34" s="46"/>
@@ -8164,7 +9077,7 @@
       <c r="H34" s="46"/>
       <c r="I34" s="76"/>
     </row>
-    <row r="35" spans="1:9">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B35" s="68"/>
       <c r="C35" s="46"/>
       <c r="D35" s="46"/>
@@ -8174,7 +9087,7 @@
       <c r="H35" s="46"/>
       <c r="I35" s="76"/>
     </row>
-    <row r="36" spans="1:9" ht="14.25" thickBot="1">
+    <row r="36" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B36" s="72"/>
       <c r="C36" s="47"/>
       <c r="D36" s="47"/>
@@ -8184,7 +9097,7 @@
       <c r="H36" s="47"/>
       <c r="I36" s="77"/>
     </row>
-    <row r="37" spans="1:9">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B37" s="35"/>
       <c r="C37" s="35"/>
       <c r="D37" s="35"/>
@@ -8194,7 +9107,7 @@
       <c r="H37" s="35"/>
       <c r="I37" s="35"/>
     </row>
-    <row r="38" spans="1:9">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B38" s="35"/>
       <c r="C38" s="35"/>
       <c r="D38" s="35"/>
@@ -8204,7 +9117,7 @@
       <c r="H38" s="35"/>
       <c r="I38" s="35"/>
     </row>
-    <row r="39" spans="1:9" ht="6" customHeight="1">
+    <row r="39" spans="1:9" ht="6" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A39" s="28"/>
       <c r="B39" s="28"/>
       <c r="C39" s="28"/>
@@ -8214,7 +9127,7 @@
       <c r="G39" s="35"/>
       <c r="H39" s="35"/>
     </row>
-    <row r="40" spans="1:9" ht="14.25">
+    <row r="40" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A40" s="32" t="s">
         <v>49</v>
       </c>
@@ -8224,7 +9137,7 @@
       <c r="H40" s="35"/>
       <c r="I40" s="35"/>
     </row>
-    <row r="41" spans="1:9">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B41" s="35"/>
       <c r="C41" s="35"/>
       <c r="D41" s="35"/>
@@ -8234,7 +9147,7 @@
       <c r="H41" s="35"/>
       <c r="I41" s="35"/>
     </row>
-    <row r="42" spans="1:9">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B42" s="35"/>
       <c r="C42" s="35"/>
       <c r="D42" s="35"/>
@@ -8244,7 +9157,7 @@
       <c r="H42" s="35"/>
       <c r="I42" s="35"/>
     </row>
-    <row r="43" spans="1:9">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B43" s="35"/>
       <c r="C43" s="35"/>
       <c r="D43" s="35"/>
@@ -8254,7 +9167,7 @@
       <c r="H43" s="35"/>
       <c r="I43" s="35"/>
     </row>
-    <row r="44" spans="1:9">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B44" s="35"/>
       <c r="C44" s="35"/>
       <c r="D44" s="35"/>
@@ -8264,7 +9177,7 @@
       <c r="H44" s="35"/>
       <c r="I44" s="35"/>
     </row>
-    <row r="45" spans="1:9">
+    <row r="45" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B45" s="35"/>
       <c r="C45" s="35"/>
       <c r="D45" s="35"/>
@@ -8274,7 +9187,7 @@
       <c r="H45" s="35"/>
       <c r="I45" s="35"/>
     </row>
-    <row r="46" spans="1:9">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B46" s="35"/>
       <c r="C46" s="35"/>
       <c r="D46" s="35"/>
@@ -8310,7 +9223,7 @@
       <selection pane="bottomLeft" activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="3.125" style="27" customWidth="1"/>
     <col min="2" max="2" width="9.75" style="27" customWidth="1"/>
@@ -8323,7 +9236,7 @@
     <col min="10" max="16384" width="9" style="27"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="6" customHeight="1">
+    <row r="1" spans="1:9" ht="6" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="31"/>
       <c r="B1" s="31"/>
       <c r="C1" s="31"/>
@@ -8334,35 +9247,35 @@
       <c r="H1" s="36"/>
       <c r="I1" s="36"/>
     </row>
-    <row r="2" spans="1:9" ht="17.25">
+    <row r="2" spans="1:9" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A2" s="26" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="4" spans="1:9">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B4" s="33" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="5" spans="1:9">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B5" s="25" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="6" spans="1:9">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B6" s="25"/>
     </row>
-    <row r="8" spans="1:9">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B8" s="37" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" ht="14.25" thickBot="1">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B9" s="25" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="14.25" thickBot="1">
+    <row r="10" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B10" s="105" t="s">
         <v>41</v>
       </c>
@@ -8388,13 +9301,13 @@
         <v>48</v>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="21">
+    <row r="11" spans="1:9" ht="21" x14ac:dyDescent="0.15">
       <c r="A11" s="38"/>
       <c r="B11" s="123" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C11" s="124" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D11" s="119"/>
       <c r="E11" s="119"/>
@@ -8403,15 +9316,15 @@
       <c r="H11" s="118"/>
       <c r="I11" s="125"/>
     </row>
-    <row r="12" spans="1:9" ht="84">
+    <row r="12" spans="1:9" ht="84" x14ac:dyDescent="0.15">
       <c r="B12" s="123" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C12" s="119" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D12" s="119" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="E12" s="119" t="s">
         <v>150</v>
@@ -8420,7 +9333,7 @@
         <v>160</v>
       </c>
       <c r="G12" s="39" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="H12" s="39" t="s">
         <v>163</v>
@@ -8429,7 +9342,7 @@
         <v>44995</v>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="52.5">
+    <row r="13" spans="1:9" ht="52.5" x14ac:dyDescent="0.15">
       <c r="B13" s="123"/>
       <c r="C13" s="124"/>
       <c r="D13" s="119"/>
@@ -8440,7 +9353,7 @@
         <v>160</v>
       </c>
       <c r="G13" s="39" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="H13" s="39" t="s">
         <v>163</v>
@@ -8449,7 +9362,7 @@
         <v>44995</v>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="42">
+    <row r="14" spans="1:9" ht="42" x14ac:dyDescent="0.15">
       <c r="B14" s="123"/>
       <c r="C14" s="46"/>
       <c r="D14" s="119"/>
@@ -8460,7 +9373,7 @@
         <v>160</v>
       </c>
       <c r="G14" s="39" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="H14" s="39" t="s">
         <v>163</v>
@@ -8469,7 +9382,7 @@
         <v>44995</v>
       </c>
     </row>
-    <row r="15" spans="1:9" ht="52.5">
+    <row r="15" spans="1:9" ht="52.5" x14ac:dyDescent="0.15">
       <c r="B15" s="123"/>
       <c r="C15" s="124"/>
       <c r="D15" s="119"/>
@@ -8480,7 +9393,7 @@
         <v>160</v>
       </c>
       <c r="G15" s="39" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="H15" s="39" t="s">
         <v>163</v>
@@ -8489,22 +9402,22 @@
         <v>44995</v>
       </c>
     </row>
-    <row r="16" spans="1:9" ht="42">
+    <row r="16" spans="1:9" ht="42" x14ac:dyDescent="0.15">
       <c r="B16" s="123" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C16" s="46" t="s">
         <v>147</v>
       </c>
       <c r="D16" s="119" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="E16" s="119"/>
       <c r="F16" s="46" t="s">
         <v>160</v>
       </c>
       <c r="G16" s="46" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="H16" s="46" t="s">
         <v>163</v>
@@ -8513,12 +9426,12 @@
         <v>44995</v>
       </c>
     </row>
-    <row r="17" spans="1:9" ht="84">
+    <row r="17" spans="1:9" ht="84" x14ac:dyDescent="0.15">
       <c r="B17" s="123" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C17" s="124" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D17" s="119"/>
       <c r="E17" s="119" t="s">
@@ -8528,7 +9441,7 @@
         <v>160</v>
       </c>
       <c r="G17" s="46" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="H17" s="46" t="s">
         <v>163</v>
@@ -8537,22 +9450,22 @@
         <v>44995</v>
       </c>
     </row>
-    <row r="18" spans="1:9" ht="52.5">
+    <row r="18" spans="1:9" ht="52.5" x14ac:dyDescent="0.15">
       <c r="B18" s="123" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C18" s="46" t="s">
         <v>147</v>
       </c>
       <c r="D18" s="119" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="E18" s="119"/>
       <c r="F18" s="46" t="s">
         <v>160</v>
       </c>
       <c r="G18" s="46" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="H18" s="46" t="s">
         <v>163</v>
@@ -8561,12 +9474,12 @@
         <v>44995</v>
       </c>
     </row>
-    <row r="19" spans="1:9" ht="84">
+    <row r="19" spans="1:9" ht="84" x14ac:dyDescent="0.15">
       <c r="B19" s="123" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C19" s="124" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D19" s="119"/>
       <c r="E19" s="119" t="s">
@@ -8576,7 +9489,7 @@
         <v>160</v>
       </c>
       <c r="G19" s="46" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="H19" s="46" t="s">
         <v>163</v>
@@ -8585,23 +9498,23 @@
         <v>44995</v>
       </c>
     </row>
-    <row r="20" spans="1:9" ht="52.5">
+    <row r="20" spans="1:9" ht="52.5" x14ac:dyDescent="0.15">
       <c r="A20" s="38"/>
       <c r="B20" s="123" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C20" s="46" t="s">
         <v>147</v>
       </c>
       <c r="D20" s="119" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="E20" s="119"/>
       <c r="F20" s="57" t="s">
         <v>160</v>
       </c>
       <c r="G20" s="57" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="H20" s="57" t="s">
         <v>163</v>
@@ -8610,13 +9523,13 @@
         <v>44995</v>
       </c>
     </row>
-    <row r="21" spans="1:9" ht="84">
+    <row r="21" spans="1:9" ht="84" x14ac:dyDescent="0.15">
       <c r="A21" s="38"/>
       <c r="B21" s="123" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C21" s="124" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D21" s="119"/>
       <c r="E21" s="119" t="s">
@@ -8626,7 +9539,7 @@
         <v>160</v>
       </c>
       <c r="G21" s="57" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="H21" s="57" t="s">
         <v>163</v>
@@ -8635,7 +9548,7 @@
         <v>44995</v>
       </c>
     </row>
-    <row r="22" spans="1:9">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B22" s="123"/>
       <c r="C22" s="46"/>
       <c r="D22" s="119"/>
@@ -8645,7 +9558,7 @@
       <c r="H22" s="46"/>
       <c r="I22" s="76"/>
     </row>
-    <row r="23" spans="1:9">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A23" s="38"/>
       <c r="B23" s="123"/>
       <c r="C23" s="46"/>
@@ -8656,7 +9569,7 @@
       <c r="H23" s="57"/>
       <c r="I23" s="76"/>
     </row>
-    <row r="24" spans="1:9">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A24" s="38"/>
       <c r="B24" s="123"/>
       <c r="C24" s="46"/>
@@ -8667,7 +9580,7 @@
       <c r="H24" s="57"/>
       <c r="I24" s="76"/>
     </row>
-    <row r="25" spans="1:9">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B25" s="123"/>
       <c r="C25" s="46"/>
       <c r="D25" s="119"/>
@@ -8677,7 +9590,7 @@
       <c r="H25" s="46"/>
       <c r="I25" s="76"/>
     </row>
-    <row r="26" spans="1:9">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B26" s="123"/>
       <c r="C26" s="46"/>
       <c r="D26" s="46"/>
@@ -8687,7 +9600,7 @@
       <c r="H26" s="46"/>
       <c r="I26" s="76"/>
     </row>
-    <row r="27" spans="1:9">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B27" s="64"/>
       <c r="C27" s="46"/>
       <c r="D27" s="46"/>
@@ -8697,7 +9610,7 @@
       <c r="H27" s="46"/>
       <c r="I27" s="76"/>
     </row>
-    <row r="28" spans="1:9">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B28" s="64"/>
       <c r="C28" s="46"/>
       <c r="D28" s="46"/>
@@ -8707,7 +9620,7 @@
       <c r="H28" s="46"/>
       <c r="I28" s="76"/>
     </row>
-    <row r="29" spans="1:9">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B29" s="64"/>
       <c r="C29" s="46"/>
       <c r="D29" s="46"/>
@@ -8717,7 +9630,7 @@
       <c r="H29" s="46"/>
       <c r="I29" s="76"/>
     </row>
-    <row r="30" spans="1:9">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B30" s="64"/>
       <c r="C30" s="46"/>
       <c r="D30" s="46"/>
@@ -8727,7 +9640,7 @@
       <c r="H30" s="46"/>
       <c r="I30" s="76"/>
     </row>
-    <row r="31" spans="1:9">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B31" s="64"/>
       <c r="C31" s="117"/>
       <c r="D31" s="46"/>
@@ -8737,7 +9650,7 @@
       <c r="H31" s="46"/>
       <c r="I31" s="76"/>
     </row>
-    <row r="32" spans="1:9">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B32" s="64"/>
       <c r="C32" s="46"/>
       <c r="D32" s="46"/>
@@ -8747,7 +9660,7 @@
       <c r="H32" s="46"/>
       <c r="I32" s="76"/>
     </row>
-    <row r="33" spans="1:9">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B33" s="68"/>
       <c r="C33" s="46"/>
       <c r="D33" s="46"/>
@@ -8757,7 +9670,7 @@
       <c r="H33" s="46"/>
       <c r="I33" s="76"/>
     </row>
-    <row r="34" spans="1:9">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B34" s="68"/>
       <c r="C34" s="46"/>
       <c r="D34" s="46"/>
@@ -8767,7 +9680,7 @@
       <c r="H34" s="46"/>
       <c r="I34" s="76"/>
     </row>
-    <row r="35" spans="1:9">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B35" s="68"/>
       <c r="C35" s="46"/>
       <c r="D35" s="46"/>
@@ -8777,7 +9690,7 @@
       <c r="H35" s="46"/>
       <c r="I35" s="76"/>
     </row>
-    <row r="36" spans="1:9" ht="14.25" thickBot="1">
+    <row r="36" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B36" s="72"/>
       <c r="C36" s="47"/>
       <c r="D36" s="47"/>
@@ -8787,7 +9700,7 @@
       <c r="H36" s="47"/>
       <c r="I36" s="77"/>
     </row>
-    <row r="37" spans="1:9">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B37" s="35"/>
       <c r="C37" s="35"/>
       <c r="D37" s="35"/>
@@ -8797,7 +9710,7 @@
       <c r="H37" s="35"/>
       <c r="I37" s="35"/>
     </row>
-    <row r="38" spans="1:9">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B38" s="35"/>
       <c r="C38" s="35"/>
       <c r="D38" s="35"/>
@@ -8807,7 +9720,7 @@
       <c r="H38" s="35"/>
       <c r="I38" s="35"/>
     </row>
-    <row r="39" spans="1:9" ht="6" customHeight="1">
+    <row r="39" spans="1:9" ht="6" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A39" s="28"/>
       <c r="B39" s="28"/>
       <c r="C39" s="28"/>
@@ -8817,7 +9730,7 @@
       <c r="G39" s="35"/>
       <c r="H39" s="35"/>
     </row>
-    <row r="40" spans="1:9" ht="14.25">
+    <row r="40" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A40" s="32" t="s">
         <v>49</v>
       </c>
@@ -8827,7 +9740,7 @@
       <c r="H40" s="35"/>
       <c r="I40" s="35"/>
     </row>
-    <row r="41" spans="1:9">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B41" s="35"/>
       <c r="C41" s="35"/>
       <c r="D41" s="35"/>
@@ -8837,7 +9750,7 @@
       <c r="H41" s="35"/>
       <c r="I41" s="35"/>
     </row>
-    <row r="42" spans="1:9">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B42" s="35"/>
       <c r="C42" s="35"/>
       <c r="D42" s="35"/>
@@ -8847,7 +9760,7 @@
       <c r="H42" s="35"/>
       <c r="I42" s="35"/>
     </row>
-    <row r="43" spans="1:9">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B43" s="35"/>
       <c r="C43" s="35"/>
       <c r="D43" s="35"/>
@@ -8857,7 +9770,7 @@
       <c r="H43" s="35"/>
       <c r="I43" s="35"/>
     </row>
-    <row r="44" spans="1:9">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B44" s="35"/>
       <c r="C44" s="35"/>
       <c r="D44" s="35"/>
@@ -8867,7 +9780,7 @@
       <c r="H44" s="35"/>
       <c r="I44" s="35"/>
     </row>
-    <row r="45" spans="1:9">
+    <row r="45" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B45" s="35"/>
       <c r="C45" s="35"/>
       <c r="D45" s="35"/>
@@ -8877,7 +9790,7 @@
       <c r="H45" s="35"/>
       <c r="I45" s="35"/>
     </row>
-    <row r="46" spans="1:9">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B46" s="35"/>
       <c r="C46" s="35"/>
       <c r="D46" s="35"/>
@@ -8903,12 +9816,331 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor rgb="FFFF99CC"/>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:I25"/>
+  <sheetViews>
+    <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="10" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A11" sqref="A11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="3.125" style="27" customWidth="1"/>
+    <col min="2" max="2" width="9.75" style="27" customWidth="1"/>
+    <col min="3" max="3" width="40.125" style="27" customWidth="1"/>
+    <col min="4" max="4" width="13.125" style="27" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="21.625" style="27" customWidth="1"/>
+    <col min="7" max="7" width="4.75" style="27" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.125" style="27" customWidth="1"/>
+    <col min="9" max="9" width="11.625" style="27" customWidth="1"/>
+    <col min="10" max="16384" width="9" style="27"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" ht="6" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="31"/>
+      <c r="B1" s="31"/>
+      <c r="C1" s="31"/>
+      <c r="D1" s="31"/>
+      <c r="E1" s="31"/>
+      <c r="F1" s="31"/>
+      <c r="G1" s="36"/>
+      <c r="H1" s="36"/>
+      <c r="I1" s="36"/>
+    </row>
+    <row r="2" spans="1:9" ht="17.25" x14ac:dyDescent="0.2">
+      <c r="A2" s="26" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="B4" s="33" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="B5" s="25" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="B6" s="25"/>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="B8" s="37" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B9" s="25" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B10" s="105" t="s">
+        <v>41</v>
+      </c>
+      <c r="C10" s="130" t="s">
+        <v>42</v>
+      </c>
+      <c r="D10" s="106" t="s">
+        <v>43</v>
+      </c>
+      <c r="E10" s="106" t="s">
+        <v>44</v>
+      </c>
+      <c r="F10" s="106" t="s">
+        <v>45</v>
+      </c>
+      <c r="G10" s="106" t="s">
+        <v>46</v>
+      </c>
+      <c r="H10" s="106" t="s">
+        <v>47</v>
+      </c>
+      <c r="I10" s="107" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="52.5" x14ac:dyDescent="0.15">
+      <c r="A11" s="38"/>
+      <c r="B11" s="136" t="s">
+        <v>210</v>
+      </c>
+      <c r="C11" s="55" t="s">
+        <v>209</v>
+      </c>
+      <c r="D11" s="57" t="s">
+        <v>206</v>
+      </c>
+      <c r="E11" s="51" t="s">
+        <v>207</v>
+      </c>
+      <c r="F11" s="39" t="s">
+        <v>214</v>
+      </c>
+      <c r="G11" s="39" t="s">
+        <v>194</v>
+      </c>
+      <c r="H11" s="51" t="s">
+        <v>220</v>
+      </c>
+      <c r="I11" s="78">
+        <v>45432</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="31.5" x14ac:dyDescent="0.15">
+      <c r="A12" s="38"/>
+      <c r="B12" s="136" t="s">
+        <v>211</v>
+      </c>
+      <c r="C12" s="117"/>
+      <c r="D12" s="57" t="s">
+        <v>217</v>
+      </c>
+      <c r="E12" s="57" t="s">
+        <v>208</v>
+      </c>
+      <c r="F12" s="39" t="s">
+        <v>214</v>
+      </c>
+      <c r="G12" s="39" t="s">
+        <v>194</v>
+      </c>
+      <c r="H12" s="39" t="s">
+        <v>220</v>
+      </c>
+      <c r="I12" s="78">
+        <v>45432</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" ht="31.5" x14ac:dyDescent="0.15">
+      <c r="A13" s="38"/>
+      <c r="B13" s="136" t="s">
+        <v>212</v>
+      </c>
+      <c r="C13" s="117"/>
+      <c r="D13" s="57" t="s">
+        <v>218</v>
+      </c>
+      <c r="E13" s="57" t="s">
+        <v>208</v>
+      </c>
+      <c r="F13" s="39" t="s">
+        <v>214</v>
+      </c>
+      <c r="G13" s="39" t="s">
+        <v>194</v>
+      </c>
+      <c r="H13" s="39" t="s">
+        <v>220</v>
+      </c>
+      <c r="I13" s="78">
+        <v>45432</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" ht="31.5" x14ac:dyDescent="0.15">
+      <c r="A14" s="38"/>
+      <c r="B14" s="136" t="s">
+        <v>216</v>
+      </c>
+      <c r="C14" s="51"/>
+      <c r="D14" s="57" t="s">
+        <v>219</v>
+      </c>
+      <c r="E14" s="57" t="s">
+        <v>208</v>
+      </c>
+      <c r="F14" s="39" t="s">
+        <v>214</v>
+      </c>
+      <c r="G14" s="39" t="s">
+        <v>194</v>
+      </c>
+      <c r="H14" s="39" t="s">
+        <v>220</v>
+      </c>
+      <c r="I14" s="78">
+        <v>45432</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B15" s="72"/>
+      <c r="C15" s="47"/>
+      <c r="D15" s="47"/>
+      <c r="E15" s="47"/>
+      <c r="F15" s="58"/>
+      <c r="G15" s="47"/>
+      <c r="H15" s="47"/>
+      <c r="I15" s="77"/>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="B16" s="35"/>
+      <c r="C16" s="35"/>
+      <c r="D16" s="35"/>
+      <c r="E16" s="35"/>
+      <c r="F16" s="35"/>
+      <c r="G16" s="35"/>
+      <c r="H16" s="35"/>
+      <c r="I16" s="35"/>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="B17" s="35"/>
+      <c r="C17" s="35"/>
+      <c r="D17" s="35"/>
+      <c r="E17" s="35"/>
+      <c r="F17" s="35"/>
+      <c r="G17" s="35"/>
+      <c r="H17" s="35"/>
+      <c r="I17" s="35"/>
+    </row>
+    <row r="18" spans="1:9" ht="6" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A18" s="28"/>
+      <c r="B18" s="28"/>
+      <c r="C18" s="28"/>
+      <c r="D18" s="35"/>
+      <c r="E18" s="35"/>
+      <c r="F18" s="35"/>
+      <c r="G18" s="35"/>
+      <c r="H18" s="35"/>
+    </row>
+    <row r="19" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A19" s="32" t="s">
+        <v>49</v>
+      </c>
+      <c r="E19" s="35"/>
+      <c r="F19" s="35"/>
+      <c r="G19" s="35"/>
+      <c r="H19" s="35"/>
+      <c r="I19" s="35"/>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="B20" s="35"/>
+      <c r="C20" s="35"/>
+      <c r="D20" s="35"/>
+      <c r="E20" s="35"/>
+      <c r="F20" s="35"/>
+      <c r="G20" s="35"/>
+      <c r="H20" s="35"/>
+      <c r="I20" s="35"/>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="B21" s="126" t="s">
+        <v>215</v>
+      </c>
+      <c r="C21" s="35"/>
+      <c r="D21" s="35"/>
+      <c r="E21" s="35"/>
+      <c r="F21" s="35"/>
+      <c r="G21" s="35"/>
+      <c r="H21" s="35"/>
+      <c r="I21" s="35"/>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="B22" s="35"/>
+      <c r="C22" s="35"/>
+      <c r="D22" s="35"/>
+      <c r="E22" s="35"/>
+      <c r="F22" s="35"/>
+      <c r="G22" s="35"/>
+      <c r="H22" s="35"/>
+      <c r="I22" s="35"/>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="B23" s="35"/>
+      <c r="C23" s="35"/>
+      <c r="D23" s="35"/>
+      <c r="E23" s="35"/>
+      <c r="F23" s="35"/>
+      <c r="G23" s="35"/>
+      <c r="H23" s="35"/>
+      <c r="I23" s="35"/>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="B24" s="35"/>
+      <c r="C24" s="35"/>
+      <c r="D24" s="35"/>
+      <c r="E24" s="35"/>
+      <c r="F24" s="35"/>
+      <c r="G24" s="35"/>
+      <c r="H24" s="35"/>
+      <c r="I24" s="35"/>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="B25" s="35"/>
+      <c r="C25" s="35"/>
+      <c r="D25" s="35"/>
+      <c r="E25" s="35"/>
+      <c r="F25" s="35"/>
+      <c r="G25" s="35"/>
+      <c r="H25" s="35"/>
+      <c r="I25" s="35"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="3"/>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G11:G15">
+      <formula1>"OK,NG"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51200000000000001" footer="0.51200000000000001"/>
+  <pageSetup paperSize="9" scale="64" fitToHeight="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <headerFooter alignWithMargins="0"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet7"/>
   <dimension ref="A1:H24"/>
   <sheetViews>
     <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="3.125" style="27" customWidth="1"/>
     <col min="2" max="3" width="9.125" style="27" customWidth="1"/>
@@ -8918,7 +10150,7 @@
     <col min="9" max="16384" width="9" style="27"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="6" customHeight="1">
+    <row r="1" spans="1:8" ht="6" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="31"/>
       <c r="B1" s="31"/>
       <c r="C1" s="31"/>
@@ -8928,51 +10160,51 @@
       <c r="G1" s="36"/>
       <c r="H1" s="36"/>
     </row>
-    <row r="2" spans="1:8" ht="17.25">
+    <row r="2" spans="1:8" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A2" s="26" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="14.25" thickBot="1">
+    <row r="4" spans="1:8" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B4" s="33" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="5" spans="1:8">
-      <c r="B5" s="135" t="s">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="B5" s="142" t="s">
         <v>66</v>
       </c>
       <c r="C5" s="108" t="s">
         <v>75</v>
       </c>
-      <c r="D5" s="137" t="s">
+      <c r="D5" s="144" t="s">
         <v>52</v>
       </c>
-      <c r="E5" s="139" t="s">
+      <c r="E5" s="146" t="s">
         <v>53</v>
       </c>
-      <c r="F5" s="137" t="s">
+      <c r="F5" s="144" t="s">
         <v>54</v>
       </c>
-      <c r="G5" s="139" t="s">
+      <c r="G5" s="146" t="s">
         <v>55</v>
       </c>
-      <c r="H5" s="133" t="s">
+      <c r="H5" s="140" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="14.25" thickBot="1">
-      <c r="B6" s="136"/>
+    <row r="6" spans="1:8" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B6" s="143"/>
       <c r="C6" s="109" t="s">
         <v>57</v>
       </c>
-      <c r="D6" s="138"/>
-      <c r="E6" s="140"/>
-      <c r="F6" s="138"/>
-      <c r="G6" s="140"/>
-      <c r="H6" s="134"/>
-    </row>
-    <row r="7" spans="1:8">
+      <c r="D6" s="145"/>
+      <c r="E6" s="147"/>
+      <c r="F6" s="145"/>
+      <c r="G6" s="147"/>
+      <c r="H6" s="141"/>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B7" s="66" t="s">
         <v>71</v>
       </c>
@@ -8983,7 +10215,7 @@
       <c r="G7" s="45"/>
       <c r="H7" s="67"/>
     </row>
-    <row r="8" spans="1:8">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B8" s="68"/>
       <c r="C8" s="42"/>
       <c r="D8" s="44"/>
@@ -8992,7 +10224,7 @@
       <c r="G8" s="48"/>
       <c r="H8" s="69"/>
     </row>
-    <row r="9" spans="1:8">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B9" s="68"/>
       <c r="C9" s="46"/>
       <c r="D9" s="42"/>
@@ -9001,7 +10233,7 @@
       <c r="G9" s="52"/>
       <c r="H9" s="69"/>
     </row>
-    <row r="10" spans="1:8">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B10" s="68"/>
       <c r="C10" s="46"/>
       <c r="D10" s="46"/>
@@ -9010,7 +10242,7 @@
       <c r="G10" s="48"/>
       <c r="H10" s="69"/>
     </row>
-    <row r="11" spans="1:8">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B11" s="68"/>
       <c r="C11" s="42"/>
       <c r="D11" s="46"/>
@@ -9019,7 +10251,7 @@
       <c r="G11" s="53"/>
       <c r="H11" s="70"/>
     </row>
-    <row r="12" spans="1:8">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B12" s="68"/>
       <c r="C12" s="46"/>
       <c r="D12" s="46"/>
@@ -9028,7 +10260,7 @@
       <c r="G12" s="52"/>
       <c r="H12" s="70"/>
     </row>
-    <row r="13" spans="1:8">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B13" s="68"/>
       <c r="C13" s="42"/>
       <c r="D13" s="54"/>
@@ -9037,7 +10269,7 @@
       <c r="G13" s="48"/>
       <c r="H13" s="71"/>
     </row>
-    <row r="14" spans="1:8">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B14" s="68"/>
       <c r="C14" s="46"/>
       <c r="D14" s="46"/>
@@ -9046,7 +10278,7 @@
       <c r="G14" s="52"/>
       <c r="H14" s="70"/>
     </row>
-    <row r="15" spans="1:8">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B15" s="68"/>
       <c r="C15" s="42"/>
       <c r="D15" s="54"/>
@@ -9055,7 +10287,7 @@
       <c r="G15" s="48"/>
       <c r="H15" s="71"/>
     </row>
-    <row r="16" spans="1:8">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B16" s="68"/>
       <c r="C16" s="46"/>
       <c r="D16" s="46"/>
@@ -9064,7 +10296,7 @@
       <c r="G16" s="52"/>
       <c r="H16" s="69"/>
     </row>
-    <row r="17" spans="2:8">
+    <row r="17" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B17" s="68"/>
       <c r="C17" s="42"/>
       <c r="D17" s="54"/>
@@ -9073,7 +10305,7 @@
       <c r="G17" s="48"/>
       <c r="H17" s="70"/>
     </row>
-    <row r="18" spans="2:8">
+    <row r="18" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B18" s="68"/>
       <c r="C18" s="46"/>
       <c r="D18" s="42"/>
@@ -9082,7 +10314,7 @@
       <c r="G18" s="52"/>
       <c r="H18" s="69"/>
     </row>
-    <row r="19" spans="2:8">
+    <row r="19" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B19" s="68"/>
       <c r="C19" s="42"/>
       <c r="D19" s="46"/>
@@ -9091,7 +10323,7 @@
       <c r="G19" s="48"/>
       <c r="H19" s="70"/>
     </row>
-    <row r="20" spans="2:8">
+    <row r="20" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B20" s="68"/>
       <c r="C20" s="46"/>
       <c r="D20" s="42"/>
@@ -9100,7 +10332,7 @@
       <c r="G20" s="52"/>
       <c r="H20" s="69"/>
     </row>
-    <row r="21" spans="2:8">
+    <row r="21" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B21" s="68"/>
       <c r="C21" s="42"/>
       <c r="D21" s="46"/>
@@ -9109,7 +10341,7 @@
       <c r="G21" s="48"/>
       <c r="H21" s="70"/>
     </row>
-    <row r="22" spans="2:8">
+    <row r="22" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B22" s="68"/>
       <c r="C22" s="46"/>
       <c r="D22" s="46"/>
@@ -9118,7 +10350,7 @@
       <c r="G22" s="52"/>
       <c r="H22" s="69"/>
     </row>
-    <row r="23" spans="2:8">
+    <row r="23" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B23" s="66"/>
       <c r="C23" s="55"/>
       <c r="D23" s="55"/>
@@ -9127,7 +10359,7 @@
       <c r="G23" s="56"/>
       <c r="H23" s="69"/>
     </row>
-    <row r="24" spans="2:8" ht="14.25" thickBot="1">
+    <row r="24" spans="2:8" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B24" s="72"/>
       <c r="C24" s="73"/>
       <c r="D24" s="73"/>
@@ -9157,14 +10389,14 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet8"/>
   <dimension ref="A1:G18"/>
   <sheetViews>
     <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="1.625" style="27" customWidth="1"/>
     <col min="2" max="2" width="6.625" style="27" customWidth="1"/>
@@ -9175,7 +10407,7 @@
     <col min="8" max="16384" width="9" style="27"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="6" customHeight="1">
+    <row r="1" spans="1:7" ht="6" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="28"/>
       <c r="B1" s="28"/>
       <c r="C1" s="28"/>
@@ -9184,25 +10416,25 @@
       <c r="F1" s="28"/>
       <c r="G1" s="28"/>
     </row>
-    <row r="2" spans="1:7" ht="17.25">
+    <row r="2" spans="1:7" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A2" s="26" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="6" customHeight="1">
+    <row r="4" spans="1:7" ht="6" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="28"/>
       <c r="B4" s="28"/>
       <c r="C4" s="28"/>
     </row>
-    <row r="5" spans="1:7" ht="14.25">
+    <row r="5" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A5" s="32" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="14.25" thickBot="1">
+    <row r="6" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A6" s="17"/>
     </row>
-    <row r="7" spans="1:7" ht="14.25" thickBot="1">
+    <row r="7" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A7" s="59"/>
       <c r="B7" s="110" t="s">
         <v>60</v>
@@ -9223,7 +10455,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="14.1" customHeight="1" thickBot="1">
+    <row r="8" spans="1:7" ht="14.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A8" s="35"/>
       <c r="B8" s="60"/>
       <c r="C8" s="61"/>
@@ -9232,7 +10464,7 @@
       <c r="F8" s="62"/>
       <c r="G8" s="63"/>
     </row>
-    <row r="9" spans="1:7" ht="14.1" customHeight="1">
+    <row r="9" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="35"/>
       <c r="B9" s="35"/>
       <c r="C9" s="35"/>
@@ -9241,23 +10473,23 @@
       <c r="F9" s="35"/>
       <c r="G9" s="35"/>
     </row>
-    <row r="10" spans="1:7">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A10" s="17"/>
     </row>
-    <row r="11" spans="1:7" ht="6" customHeight="1">
+    <row r="11" spans="1:7" ht="6" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="28"/>
       <c r="B11" s="28"/>
       <c r="C11" s="28"/>
     </row>
-    <row r="12" spans="1:7" ht="14.25">
+    <row r="12" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A12" s="32" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="14.25" thickBot="1">
+    <row r="13" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A13" s="17"/>
     </row>
-    <row r="14" spans="1:7" ht="14.25" thickBot="1">
+    <row r="14" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A14" s="59"/>
       <c r="B14" s="110" t="s">
         <v>60</v>
@@ -9278,7 +10510,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="14.1" customHeight="1">
+    <row r="15" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="35"/>
       <c r="B15" s="64"/>
       <c r="C15" s="39"/>
@@ -9287,7 +10519,7 @@
       <c r="F15" s="40"/>
       <c r="G15" s="65"/>
     </row>
-    <row r="16" spans="1:7" ht="14.1" customHeight="1">
+    <row r="16" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="35"/>
       <c r="B16" s="64"/>
       <c r="C16" s="39"/>
@@ -9296,7 +10528,7 @@
       <c r="F16" s="40"/>
       <c r="G16" s="65"/>
     </row>
-    <row r="17" spans="1:7" ht="14.1" customHeight="1">
+    <row r="17" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="35"/>
       <c r="B17" s="64"/>
       <c r="C17" s="39"/>
@@ -9305,7 +10537,7 @@
       <c r="F17" s="40"/>
       <c r="G17" s="65"/>
     </row>
-    <row r="18" spans="1:7" ht="14.1" customHeight="1" thickBot="1">
+    <row r="18" spans="1:7" ht="14.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A18" s="35"/>
       <c r="B18" s="60"/>
       <c r="C18" s="61"/>
@@ -9329,20 +10561,20 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:I15"/>
+  <dimension ref="A1:I16"/>
   <sheetViews>
     <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="9" style="15"/>
-    <col min="2" max="2" width="9.125" style="15" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.375" style="15" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="15.625" style="15" customWidth="1"/>
     <col min="4" max="4" width="7.625" style="15" customWidth="1"/>
     <col min="5" max="16384" width="9" style="15"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="8.1" customHeight="1">
+    <row r="1" spans="1:9" ht="8.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="14"/>
       <c r="B1" s="14"/>
       <c r="C1" s="14"/>
@@ -9353,29 +10585,29 @@
       <c r="H1" s="14"/>
       <c r="I1" s="14"/>
     </row>
-    <row r="2" spans="1:9" ht="17.25">
+    <row r="2" spans="1:9" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A2" s="16" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:9">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A3" s="17"/>
     </row>
-    <row r="4" spans="1:9" ht="3.95" customHeight="1">
+    <row r="4" spans="1:9" ht="3.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="14"/>
       <c r="B4" s="14"/>
       <c r="C4" s="14"/>
       <c r="D4" s="14"/>
     </row>
-    <row r="5" spans="1:9" ht="14.25">
+    <row r="5" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A5" s="18" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="14.25" customHeight="1" thickBot="1">
+    <row r="6" spans="1:9" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A6" s="19"/>
     </row>
-    <row r="7" spans="1:9" ht="14.25" thickBot="1">
+    <row r="7" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B7" s="99" t="s">
         <v>10</v>
       </c>
@@ -9393,7 +10625,7 @@
       <c r="H7" s="101"/>
       <c r="I7" s="102"/>
     </row>
-    <row r="8" spans="1:9">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B8" s="91">
         <v>44942</v>
       </c>
@@ -9411,7 +10643,7 @@
       <c r="H8" s="23"/>
       <c r="I8" s="92"/>
     </row>
-    <row r="9" spans="1:9">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B9" s="91">
         <v>44984</v>
       </c>
@@ -9429,7 +10661,7 @@
       <c r="H9" s="23"/>
       <c r="I9" s="92"/>
     </row>
-    <row r="10" spans="1:9">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B10" s="91">
         <v>44993</v>
       </c>
@@ -9437,37 +10669,55 @@
         <v>89</v>
       </c>
       <c r="D10" s="24" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="E10" s="22" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="F10" s="23"/>
       <c r="G10" s="23"/>
       <c r="H10" s="23"/>
       <c r="I10" s="92"/>
     </row>
-    <row r="11" spans="1:9" ht="14.25" thickBot="1">
-      <c r="B11" s="93"/>
-      <c r="C11" s="94"/>
-      <c r="D11" s="95"/>
-      <c r="E11" s="96"/>
-      <c r="F11" s="97"/>
-      <c r="G11" s="97"/>
-      <c r="H11" s="97"/>
-      <c r="I11" s="98"/>
-    </row>
-    <row r="12" spans="1:9">
-      <c r="A12" s="17"/>
-    </row>
-    <row r="13" spans="1:9">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="B11" s="131">
+        <v>45561</v>
+      </c>
+      <c r="C11" s="132" t="s">
+        <v>203</v>
+      </c>
+      <c r="D11" s="133" t="s">
+        <v>201</v>
+      </c>
+      <c r="E11" s="134" t="s">
+        <v>221</v>
+      </c>
+      <c r="F11" s="23"/>
+      <c r="G11" s="23"/>
+      <c r="H11" s="23"/>
+      <c r="I11" s="92"/>
+    </row>
+    <row r="12" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B12" s="93"/>
+      <c r="C12" s="94"/>
+      <c r="D12" s="95"/>
+      <c r="E12" s="96"/>
+      <c r="F12" s="97"/>
+      <c r="G12" s="97"/>
+      <c r="H12" s="97"/>
+      <c r="I12" s="98"/>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A13" s="17"/>
     </row>
-    <row r="14" spans="1:9">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A14" s="17"/>
     </row>
-    <row r="15" spans="1:9">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A15" s="17"/>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A16" s="17"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3"/>
@@ -9488,13 +10738,13 @@
   <sheetViews>
     <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="13" width="6.625" style="27" customWidth="1"/>
     <col min="14" max="16384" width="9" style="27"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="15" customFormat="1" ht="8.1" customHeight="1">
+    <row r="1" spans="1:13" s="15" customFormat="1" ht="8.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="14"/>
       <c r="B1" s="14"/>
       <c r="C1" s="14"/>
@@ -9509,156 +10759,156 @@
       <c r="L1" s="14"/>
       <c r="M1" s="14"/>
     </row>
-    <row r="2" spans="1:13" ht="17.25">
+    <row r="2" spans="1:13" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A2" s="26" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:13" ht="14.45" customHeight="1"/>
-    <row r="4" spans="1:13" ht="6" customHeight="1">
+    <row r="3" spans="1:13" ht="14.45" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="4" spans="1:13" ht="6" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="28"/>
       <c r="B4" s="28"/>
     </row>
-    <row r="5" spans="1:13" ht="13.5" customHeight="1">
+    <row r="5" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="29" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="6" spans="1:13" ht="13.5" customHeight="1">
+    <row r="6" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="29"/>
     </row>
-    <row r="7" spans="1:13" ht="14.45" customHeight="1">
+    <row r="7" spans="1:13" ht="14.45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B7" s="27" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="8" spans="1:13" ht="14.45" customHeight="1"/>
-    <row r="9" spans="1:13" ht="14.45" customHeight="1">
+    <row r="8" spans="1:13" ht="14.45" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="9" spans="1:13" ht="14.45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B9" s="38" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="10" spans="1:13" ht="14.45" customHeight="1">
+    <row r="10" spans="1:13" ht="14.45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B10" s="27" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="11" spans="1:13" ht="14.45" customHeight="1"/>
-    <row r="12" spans="1:13" ht="14.45" customHeight="1"/>
-    <row r="13" spans="1:13" ht="6" customHeight="1">
+    <row r="11" spans="1:13" ht="14.45" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="12" spans="1:13" ht="14.45" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="13" spans="1:13" ht="6" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="28"/>
       <c r="B13" s="28"/>
     </row>
-    <row r="14" spans="1:13">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A14" s="29" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="15" spans="1:13">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A15" s="29"/>
     </row>
-    <row r="16" spans="1:13" ht="14.45" customHeight="1">
+    <row r="16" spans="1:13" ht="14.45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B16" s="27" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="17" spans="1:13" ht="14.45" customHeight="1">
+    <row r="17" spans="1:13" ht="14.45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B17" s="27" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="18" spans="1:13" ht="14.45" customHeight="1"/>
-    <row r="19" spans="1:13" ht="14.45" customHeight="1">
+    <row r="18" spans="1:13" ht="14.45" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="19" spans="1:13" ht="14.45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B19" s="27" t="s">
         <v>22</v>
       </c>
       <c r="J19" s="30"/>
     </row>
-    <row r="20" spans="1:13" ht="14.45" customHeight="1">
+    <row r="20" spans="1:13" ht="14.45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B20" s="38" t="s">
         <v>81</v>
       </c>
       <c r="J20" s="30"/>
     </row>
-    <row r="21" spans="1:13" ht="14.45" customHeight="1">
+    <row r="21" spans="1:13" ht="14.45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="J21" s="30"/>
     </row>
-    <row r="22" spans="1:13" ht="14.45" customHeight="1">
+    <row r="22" spans="1:13" ht="14.45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="J22" s="30"/>
     </row>
-    <row r="23" spans="1:13" ht="6" customHeight="1">
+    <row r="23" spans="1:13" ht="6" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="28"/>
       <c r="B23" s="28"/>
     </row>
-    <row r="24" spans="1:13">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A24" s="29" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="25" spans="1:13" ht="14.45" customHeight="1">
+    <row r="25" spans="1:13" ht="14.45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="J25" s="30"/>
     </row>
-    <row r="26" spans="1:13" ht="14.45" customHeight="1">
+    <row r="26" spans="1:13" ht="14.45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B26" s="27" t="s">
         <v>24</v>
       </c>
       <c r="M26" s="30"/>
     </row>
-    <row r="27" spans="1:13" ht="14.45" customHeight="1">
+    <row r="27" spans="1:13" ht="14.45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B27" s="27" t="s">
         <v>25</v>
       </c>
       <c r="M27" s="30"/>
     </row>
-    <row r="28" spans="1:13" ht="14.45" customHeight="1">
+    <row r="28" spans="1:13" ht="14.45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B28" s="27" t="s">
         <v>26</v>
       </c>
       <c r="M28" s="30"/>
     </row>
-    <row r="29" spans="1:13" ht="14.45" customHeight="1">
+    <row r="29" spans="1:13" ht="14.45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B29" s="27" t="s">
         <v>27</v>
       </c>
       <c r="M29" s="30"/>
     </row>
-    <row r="30" spans="1:13" ht="14.45" customHeight="1">
+    <row r="30" spans="1:13" ht="14.45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B30" s="27" t="s">
         <v>28</v>
       </c>
       <c r="M30" s="30"/>
     </row>
-    <row r="31" spans="1:13" ht="14.45" customHeight="1">
+    <row r="31" spans="1:13" ht="14.45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B31" s="27" t="s">
         <v>29</v>
       </c>
       <c r="M31" s="30"/>
     </row>
-    <row r="32" spans="1:13" ht="14.45" customHeight="1">
+    <row r="32" spans="1:13" ht="14.45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B32" s="27" t="s">
         <v>30</v>
       </c>
       <c r="M32" s="30"/>
     </row>
-    <row r="33" spans="2:13" ht="14.45" customHeight="1">
+    <row r="33" spans="2:13" ht="14.45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B33" s="27" t="s">
         <v>31</v>
       </c>
       <c r="M33" s="30"/>
     </row>
-    <row r="34" spans="2:13" ht="14.45" customHeight="1">
+    <row r="34" spans="2:13" ht="14.45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B34" s="27" t="s">
         <v>32</v>
       </c>
       <c r="M34" s="30"/>
     </row>
-    <row r="35" spans="2:13" ht="14.45" customHeight="1">
+    <row r="35" spans="2:13" ht="14.45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="M35" s="30"/>
     </row>
-    <row r="36" spans="2:13" ht="14.45" customHeight="1">
+    <row r="36" spans="2:13" ht="14.45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="M36" s="30"/>
     </row>
-    <row r="37" spans="2:13" ht="14.45" customHeight="1">
+    <row r="37" spans="2:13" ht="14.45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="M37" s="30"/>
     </row>
   </sheetData>
@@ -9676,13 +10926,14 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet4">
+    <tabColor rgb="FFFF99CC"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:F19"/>
   <sheetViews>
     <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="80" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="2.75" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="2.75" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="3" width="2.75" style="82"/>
     <col min="4" max="4" width="22.125" style="82" customWidth="1"/>
@@ -9691,7 +10942,7 @@
     <col min="7" max="16384" width="2.75" style="82"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="6" customHeight="1">
+    <row r="1" spans="1:6" ht="6" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="81"/>
       <c r="B1" s="81"/>
       <c r="C1" s="81"/>
@@ -9699,7 +10950,7 @@
       <c r="E1" s="81"/>
       <c r="F1" s="81"/>
     </row>
-    <row r="2" spans="1:6" ht="17.25">
+    <row r="2" spans="1:6" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A2" s="80" t="s">
         <v>72</v>
       </c>
@@ -9709,7 +10960,7 @@
       <c r="E2" s="79"/>
       <c r="F2" s="79"/>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A3" s="79"/>
       <c r="B3" s="79"/>
       <c r="C3" s="83"/>
@@ -9717,7 +10968,7 @@
       <c r="E3" s="83"/>
       <c r="F3" s="83"/>
     </row>
-    <row r="4" spans="1:6" s="85" customFormat="1" ht="11.25">
+    <row r="4" spans="1:6" s="85" customFormat="1" ht="11.25" x14ac:dyDescent="0.15">
       <c r="A4" s="84"/>
       <c r="B4" s="84"/>
       <c r="C4" s="84"/>
@@ -9727,7 +10978,7 @@
       <c r="E4" s="84"/>
       <c r="F4" s="84"/>
     </row>
-    <row r="5" spans="1:6" s="85" customFormat="1" ht="16.5" customHeight="1" thickBot="1">
+    <row r="5" spans="1:6" s="85" customFormat="1" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A5" s="84"/>
       <c r="B5" s="84"/>
       <c r="C5" s="84"/>
@@ -9735,7 +10986,7 @@
       <c r="E5" s="84"/>
       <c r="F5" s="84"/>
     </row>
-    <row r="6" spans="1:6" s="85" customFormat="1" ht="12">
+    <row r="6" spans="1:6" s="85" customFormat="1" ht="12" x14ac:dyDescent="0.15">
       <c r="A6" s="84"/>
       <c r="B6" s="84"/>
       <c r="C6" s="84"/>
@@ -9747,7 +10998,7 @@
       </c>
       <c r="F6" s="84"/>
     </row>
-    <row r="7" spans="1:6" s="85" customFormat="1">
+    <row r="7" spans="1:6" s="85" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A7" s="84"/>
       <c r="B7" s="84"/>
       <c r="C7" s="84"/>
@@ -9755,11 +11006,11 @@
         <v>82</v>
       </c>
       <c r="E7" s="87" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="F7" s="84"/>
     </row>
-    <row r="8" spans="1:6" s="85" customFormat="1">
+    <row r="8" spans="1:6" s="85" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A8" s="84"/>
       <c r="B8" s="84"/>
       <c r="C8" s="84"/>
@@ -9771,7 +11022,7 @@
       </c>
       <c r="F8" s="84"/>
     </row>
-    <row r="9" spans="1:6" s="85" customFormat="1">
+    <row r="9" spans="1:6" s="85" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A9" s="84"/>
       <c r="B9" s="84"/>
       <c r="C9" s="84"/>
@@ -9783,7 +11034,7 @@
       </c>
       <c r="F9" s="84"/>
     </row>
-    <row r="10" spans="1:6" s="85" customFormat="1">
+    <row r="10" spans="1:6" s="85" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A10" s="84"/>
       <c r="B10" s="84"/>
       <c r="C10" s="84"/>
@@ -9795,27 +11046,31 @@
       </c>
       <c r="F10" s="84"/>
     </row>
-    <row r="11" spans="1:6" s="85" customFormat="1" ht="22.5">
+    <row r="11" spans="1:6" s="85" customFormat="1" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A11" s="84"/>
       <c r="B11" s="84"/>
       <c r="C11" s="84"/>
       <c r="D11" s="121" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="E11" s="129" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="F11" s="84"/>
     </row>
-    <row r="12" spans="1:6" s="85" customFormat="1">
+    <row r="12" spans="1:6" s="85" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A12" s="84"/>
       <c r="B12" s="84"/>
       <c r="C12" s="84"/>
-      <c r="D12" s="121"/>
-      <c r="E12" s="87"/>
+      <c r="D12" s="121" t="s">
+        <v>204</v>
+      </c>
+      <c r="E12" s="135" t="s">
+        <v>205</v>
+      </c>
       <c r="F12" s="84"/>
     </row>
-    <row r="13" spans="1:6" s="85" customFormat="1" ht="11.25">
+    <row r="13" spans="1:6" s="85" customFormat="1" ht="11.25" x14ac:dyDescent="0.15">
       <c r="A13" s="84"/>
       <c r="B13" s="84"/>
       <c r="C13" s="84"/>
@@ -9823,7 +11078,7 @@
       <c r="E13" s="87"/>
       <c r="F13" s="84"/>
     </row>
-    <row r="14" spans="1:6" s="85" customFormat="1" ht="11.25">
+    <row r="14" spans="1:6" s="85" customFormat="1" ht="11.25" x14ac:dyDescent="0.15">
       <c r="A14" s="84"/>
       <c r="B14" s="84"/>
       <c r="C14" s="84"/>
@@ -9831,7 +11086,7 @@
       <c r="E14" s="87"/>
       <c r="F14" s="84"/>
     </row>
-    <row r="15" spans="1:6" s="85" customFormat="1" ht="11.25">
+    <row r="15" spans="1:6" s="85" customFormat="1" ht="11.25" x14ac:dyDescent="0.15">
       <c r="A15" s="84"/>
       <c r="B15" s="84"/>
       <c r="C15" s="84"/>
@@ -9839,7 +11094,7 @@
       <c r="E15" s="87"/>
       <c r="F15" s="84"/>
     </row>
-    <row r="16" spans="1:6" s="85" customFormat="1" ht="11.25">
+    <row r="16" spans="1:6" s="85" customFormat="1" ht="11.25" x14ac:dyDescent="0.15">
       <c r="A16" s="84"/>
       <c r="B16" s="84"/>
       <c r="C16" s="84"/>
@@ -9847,7 +11102,7 @@
       <c r="E16" s="87"/>
       <c r="F16" s="84"/>
     </row>
-    <row r="17" spans="1:6" s="85" customFormat="1" ht="12" thickBot="1">
+    <row r="17" spans="1:6" s="85" customFormat="1" ht="12" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A17" s="88"/>
       <c r="B17" s="84"/>
       <c r="C17" s="84"/>
@@ -9855,7 +11110,7 @@
       <c r="E17" s="90"/>
       <c r="F17" s="84"/>
     </row>
-    <row r="18" spans="1:6" s="85" customFormat="1" ht="11.25">
+    <row r="18" spans="1:6" s="85" customFormat="1" ht="11.25" x14ac:dyDescent="0.15">
       <c r="A18" s="84"/>
       <c r="B18" s="88"/>
       <c r="C18" s="88"/>
@@ -9863,7 +11118,7 @@
       <c r="E18" s="88"/>
       <c r="F18" s="88"/>
     </row>
-    <row r="19" spans="1:6" s="85" customFormat="1" ht="11.25">
+    <row r="19" spans="1:6" s="85" customFormat="1" ht="11.25" x14ac:dyDescent="0.15">
       <c r="A19" s="88"/>
       <c r="B19" s="88"/>
       <c r="C19" s="88"/>
@@ -9879,6 +11134,7 @@
     <hyperlink ref="D10" location="'テスト仕様_テスト結果(テスト・シナリオ4)'!A1" display="シナリオ4"/>
     <hyperlink ref="D9" location="'テスト仕様_テスト結果(テスト・シナリオ3) '!A1" display="シナリオ3"/>
     <hyperlink ref="D11" location="'テスト仕様_テスト結果(テスト・シナリオ4)'!A1" display="シナリオ4"/>
+    <hyperlink ref="D12" location="'テスト仕様_テスト結果(テスト・シナリオ6)'!A1" display="シナリオ6"/>
   </hyperlinks>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="97" fitToHeight="0" orientation="landscape" cellComments="asDisplayed" r:id="rId1"/>
@@ -9898,7 +11154,7 @@
   <sheetViews>
     <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="3.125" style="27" customWidth="1"/>
     <col min="2" max="2" width="20.625" style="27" customWidth="1"/>
@@ -9906,53 +11162,53 @@
     <col min="4" max="16384" width="9" style="27"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="6" customHeight="1">
+    <row r="1" spans="1:4" ht="6" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="31"/>
       <c r="B1" s="31"/>
       <c r="C1" s="31"/>
       <c r="D1" s="31"/>
     </row>
-    <row r="2" spans="1:4" ht="14.25">
+    <row r="2" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A2" s="32" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B4" s="33" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B5" s="33"/>
     </row>
-    <row r="6" spans="1:4">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B6" s="127" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="7" spans="1:4">
-      <c r="B7" s="132" t="s">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B7" s="139" t="s">
         <v>97</v>
       </c>
-      <c r="C7" s="132"/>
-    </row>
-    <row r="8" spans="1:4">
+      <c r="C7" s="139"/>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B8" s="128"/>
       <c r="C8" s="128"/>
     </row>
-    <row r="9" spans="1:4" s="116" customFormat="1">
+    <row r="9" spans="1:4" s="116" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B9" s="34" t="s">
         <v>94</v>
       </c>
       <c r="C9" s="27"/>
     </row>
-    <row r="10" spans="1:4" s="116" customFormat="1" ht="14.25" thickBot="1">
+    <row r="10" spans="1:4" s="116" customFormat="1" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B10" s="33" t="s">
         <v>35</v>
       </c>
       <c r="C10" s="27"/>
     </row>
-    <row r="11" spans="1:4" ht="14.25" thickBot="1">
+    <row r="11" spans="1:4" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B11" s="114" t="s">
         <v>77</v>
       </c>
@@ -9960,7 +11216,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="21.75" thickBot="1">
+    <row r="12" spans="1:4" ht="21.75" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B12" s="120" t="s">
         <v>95</v>
       </c>
@@ -9968,20 +11224,20 @@
         <v>96</v>
       </c>
     </row>
-    <row r="13" spans="1:4">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B13" s="33"/>
     </row>
-    <row r="14" spans="1:4">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B14" s="34" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="14.25" thickBot="1">
+    <row r="15" spans="1:4" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B15" s="33" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="14.25" thickBot="1">
+    <row r="16" spans="1:4" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B16" s="114" t="s">
         <v>77</v>
       </c>
@@ -9989,7 +11245,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="17" spans="2:3" ht="32.25" thickBot="1">
+    <row r="17" spans="2:3" ht="32.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B17" s="120" t="s">
         <v>100</v>
       </c>
@@ -9997,7 +11253,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="18" spans="2:3" ht="32.25" thickBot="1">
+    <row r="18" spans="2:3" ht="32.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B18" s="120" t="s">
         <v>100</v>
       </c>
@@ -10005,7 +11261,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="19" spans="2:3" ht="32.25" thickBot="1">
+    <row r="19" spans="2:3" ht="32.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B19" s="120" t="s">
         <v>101</v>
       </c>
@@ -10013,7 +11269,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="20" spans="2:3" ht="32.25" thickBot="1">
+    <row r="20" spans="2:3" ht="32.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B20" s="120" t="s">
         <v>100</v>
       </c>
@@ -10021,15 +11277,15 @@
         <v>106</v>
       </c>
     </row>
-    <row r="21" spans="2:3">
+    <row r="21" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B21" s="33"/>
     </row>
-    <row r="22" spans="2:3" ht="14.25" thickBot="1">
+    <row r="22" spans="2:3" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B22" s="34" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="23" spans="2:3" ht="14.25" thickBot="1">
+    <row r="23" spans="2:3" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B23" s="114" t="s">
         <v>77</v>
       </c>
@@ -10037,7 +11293,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="24" spans="2:3" ht="32.25" thickBot="1">
+    <row r="24" spans="2:3" ht="32.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B24" s="120" t="s">
         <v>100</v>
       </c>
@@ -10045,7 +11301,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="25" spans="2:3" ht="32.25" thickBot="1">
+    <row r="25" spans="2:3" ht="32.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B25" s="120" t="s">
         <v>100</v>
       </c>
@@ -10053,7 +11309,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="26" spans="2:3" ht="32.25" thickBot="1">
+    <row r="26" spans="2:3" ht="32.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B26" s="120" t="s">
         <v>100</v>
       </c>
@@ -10061,28 +11317,28 @@
         <v>157</v>
       </c>
     </row>
-    <row r="27" spans="2:3">
+    <row r="27" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B27" s="33"/>
     </row>
-    <row r="28" spans="2:3">
+    <row r="28" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B28" s="34" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="29" spans="2:3">
+    <row r="29" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B29" s="33" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="30" spans="2:3">
+    <row r="30" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B30" s="33"/>
     </row>
-    <row r="31" spans="2:3">
+    <row r="31" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B31" s="34" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="32" spans="2:3">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="32" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B32" s="33" t="s">
         <v>98</v>
       </c>
@@ -10112,7 +11368,7 @@
       <selection pane="bottomLeft" activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="3.125" style="27" customWidth="1"/>
     <col min="2" max="2" width="9.75" style="27" customWidth="1"/>
@@ -10125,7 +11381,7 @@
     <col min="10" max="16384" width="9" style="27"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="6" customHeight="1">
+    <row r="1" spans="1:9" ht="6" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="31"/>
       <c r="B1" s="31"/>
       <c r="C1" s="31"/>
@@ -10136,35 +11392,35 @@
       <c r="H1" s="36"/>
       <c r="I1" s="36"/>
     </row>
-    <row r="2" spans="1:9" ht="17.25">
+    <row r="2" spans="1:9" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A2" s="26" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="4" spans="1:9">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B4" s="33" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="5" spans="1:9">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B5" s="25" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="6" spans="1:9">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B6" s="25"/>
     </row>
-    <row r="8" spans="1:9">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B8" s="37" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="14.25" thickBot="1">
+    <row r="9" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B9" s="25" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="14.25" thickBot="1">
+    <row r="10" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B10" s="105" t="s">
         <v>41</v>
       </c>
@@ -10190,7 +11446,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="21">
+    <row r="11" spans="1:9" ht="21" x14ac:dyDescent="0.15">
       <c r="A11" s="38"/>
       <c r="B11" s="64" t="s">
         <v>107</v>
@@ -10205,7 +11461,7 @@
       <c r="H11" s="51"/>
       <c r="I11" s="78"/>
     </row>
-    <row r="12" spans="1:9" ht="94.5">
+    <row r="12" spans="1:9" ht="94.5" x14ac:dyDescent="0.15">
       <c r="A12" s="38"/>
       <c r="B12" s="64" t="s">
         <v>109</v>
@@ -10232,7 +11488,7 @@
         <v>44944</v>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="52.5">
+    <row r="13" spans="1:9" ht="52.5" x14ac:dyDescent="0.15">
       <c r="A13" s="38"/>
       <c r="B13" s="64"/>
       <c r="C13" s="46"/>
@@ -10253,7 +11509,7 @@
         <v>44944</v>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="52.5">
+    <row r="14" spans="1:9" ht="52.5" x14ac:dyDescent="0.15">
       <c r="A14" s="38"/>
       <c r="B14" s="64"/>
       <c r="C14" s="46"/>
@@ -10274,7 +11530,7 @@
         <v>44944</v>
       </c>
     </row>
-    <row r="15" spans="1:9">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B15" s="64"/>
       <c r="C15" s="46"/>
       <c r="D15" s="46"/>
@@ -10284,7 +11540,7 @@
       <c r="H15" s="46"/>
       <c r="I15" s="76"/>
     </row>
-    <row r="16" spans="1:9">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B16" s="64"/>
       <c r="C16" s="117"/>
       <c r="D16" s="46"/>
@@ -10294,7 +11550,7 @@
       <c r="H16" s="46"/>
       <c r="I16" s="76"/>
     </row>
-    <row r="17" spans="1:9">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B17" s="64"/>
       <c r="C17" s="46"/>
       <c r="D17" s="46"/>
@@ -10304,7 +11560,7 @@
       <c r="H17" s="46"/>
       <c r="I17" s="76"/>
     </row>
-    <row r="18" spans="1:9">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B18" s="64"/>
       <c r="C18" s="46"/>
       <c r="D18" s="46"/>
@@ -10314,7 +11570,7 @@
       <c r="H18" s="46"/>
       <c r="I18" s="76"/>
     </row>
-    <row r="19" spans="1:9">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B19" s="64"/>
       <c r="C19" s="46"/>
       <c r="D19" s="46"/>
@@ -10324,7 +11580,7 @@
       <c r="H19" s="46"/>
       <c r="I19" s="76"/>
     </row>
-    <row r="20" spans="1:9">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B20" s="64"/>
       <c r="C20" s="46"/>
       <c r="D20" s="46"/>
@@ -10334,7 +11590,7 @@
       <c r="H20" s="46"/>
       <c r="I20" s="76"/>
     </row>
-    <row r="21" spans="1:9">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A21" s="38"/>
       <c r="B21" s="64"/>
       <c r="C21" s="46"/>
@@ -10345,7 +11601,7 @@
       <c r="H21" s="57"/>
       <c r="I21" s="76"/>
     </row>
-    <row r="22" spans="1:9">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A22" s="38"/>
       <c r="B22" s="64"/>
       <c r="C22" s="46"/>
@@ -10356,7 +11612,7 @@
       <c r="H22" s="57"/>
       <c r="I22" s="76"/>
     </row>
-    <row r="23" spans="1:9">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B23" s="64"/>
       <c r="C23" s="46"/>
       <c r="D23" s="46"/>
@@ -10366,7 +11622,7 @@
       <c r="H23" s="46"/>
       <c r="I23" s="76"/>
     </row>
-    <row r="24" spans="1:9">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A24" s="38"/>
       <c r="B24" s="64"/>
       <c r="C24" s="46"/>
@@ -10377,7 +11633,7 @@
       <c r="H24" s="57"/>
       <c r="I24" s="76"/>
     </row>
-    <row r="25" spans="1:9">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A25" s="38"/>
       <c r="B25" s="64"/>
       <c r="C25" s="46"/>
@@ -10388,7 +11644,7 @@
       <c r="H25" s="57"/>
       <c r="I25" s="76"/>
     </row>
-    <row r="26" spans="1:9">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B26" s="64"/>
       <c r="C26" s="46"/>
       <c r="D26" s="46"/>
@@ -10398,7 +11654,7 @@
       <c r="H26" s="46"/>
       <c r="I26" s="76"/>
     </row>
-    <row r="27" spans="1:9">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B27" s="64"/>
       <c r="C27" s="46"/>
       <c r="D27" s="46"/>
@@ -10408,7 +11664,7 @@
       <c r="H27" s="46"/>
       <c r="I27" s="76"/>
     </row>
-    <row r="28" spans="1:9">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B28" s="64"/>
       <c r="C28" s="46"/>
       <c r="D28" s="46"/>
@@ -10418,7 +11674,7 @@
       <c r="H28" s="46"/>
       <c r="I28" s="76"/>
     </row>
-    <row r="29" spans="1:9">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B29" s="64"/>
       <c r="C29" s="46"/>
       <c r="D29" s="46"/>
@@ -10428,7 +11684,7 @@
       <c r="H29" s="46"/>
       <c r="I29" s="76"/>
     </row>
-    <row r="30" spans="1:9">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B30" s="64"/>
       <c r="C30" s="46"/>
       <c r="D30" s="46"/>
@@ -10438,7 +11694,7 @@
       <c r="H30" s="46"/>
       <c r="I30" s="76"/>
     </row>
-    <row r="31" spans="1:9">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B31" s="64"/>
       <c r="C31" s="46"/>
       <c r="D31" s="46"/>
@@ -10448,7 +11704,7 @@
       <c r="H31" s="46"/>
       <c r="I31" s="76"/>
     </row>
-    <row r="32" spans="1:9">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B32" s="64"/>
       <c r="C32" s="117"/>
       <c r="D32" s="46"/>
@@ -10458,7 +11714,7 @@
       <c r="H32" s="46"/>
       <c r="I32" s="76"/>
     </row>
-    <row r="33" spans="1:9">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B33" s="64"/>
       <c r="C33" s="46"/>
       <c r="D33" s="46"/>
@@ -10468,7 +11724,7 @@
       <c r="H33" s="46"/>
       <c r="I33" s="76"/>
     </row>
-    <row r="34" spans="1:9">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B34" s="64"/>
       <c r="C34" s="46"/>
       <c r="D34" s="46"/>
@@ -10478,7 +11734,7 @@
       <c r="H34" s="46"/>
       <c r="I34" s="76"/>
     </row>
-    <row r="35" spans="1:9">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B35" s="68"/>
       <c r="C35" s="46"/>
       <c r="D35" s="46"/>
@@ -10488,7 +11744,7 @@
       <c r="H35" s="46"/>
       <c r="I35" s="76"/>
     </row>
-    <row r="36" spans="1:9">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B36" s="68"/>
       <c r="C36" s="46"/>
       <c r="D36" s="46"/>
@@ -10498,7 +11754,7 @@
       <c r="H36" s="46"/>
       <c r="I36" s="76"/>
     </row>
-    <row r="37" spans="1:9" ht="14.25" thickBot="1">
+    <row r="37" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B37" s="72"/>
       <c r="C37" s="47"/>
       <c r="D37" s="47"/>
@@ -10508,7 +11764,7 @@
       <c r="H37" s="47"/>
       <c r="I37" s="77"/>
     </row>
-    <row r="38" spans="1:9">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B38" s="35"/>
       <c r="C38" s="35"/>
       <c r="D38" s="35"/>
@@ -10518,7 +11774,7 @@
       <c r="H38" s="35"/>
       <c r="I38" s="35"/>
     </row>
-    <row r="39" spans="1:9">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B39" s="35"/>
       <c r="C39" s="35"/>
       <c r="D39" s="35"/>
@@ -10528,7 +11784,7 @@
       <c r="H39" s="35"/>
       <c r="I39" s="35"/>
     </row>
-    <row r="40" spans="1:9" ht="6" customHeight="1">
+    <row r="40" spans="1:9" ht="6" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A40" s="28"/>
       <c r="B40" s="28"/>
       <c r="C40" s="28"/>
@@ -10538,7 +11794,7 @@
       <c r="G40" s="35"/>
       <c r="H40" s="35"/>
     </row>
-    <row r="41" spans="1:9" ht="14.25">
+    <row r="41" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A41" s="32" t="s">
         <v>49</v>
       </c>
@@ -10548,7 +11804,7 @@
       <c r="H41" s="35"/>
       <c r="I41" s="35"/>
     </row>
-    <row r="42" spans="1:9">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B42" s="35"/>
       <c r="C42" s="35"/>
       <c r="D42" s="35"/>
@@ -10558,7 +11814,7 @@
       <c r="H42" s="35"/>
       <c r="I42" s="35"/>
     </row>
-    <row r="43" spans="1:9">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B43" s="126" t="s">
         <v>87</v>
       </c>
@@ -10570,7 +11826,7 @@
       <c r="H43" s="35"/>
       <c r="I43" s="35"/>
     </row>
-    <row r="44" spans="1:9">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B44" s="35"/>
       <c r="C44" s="35"/>
       <c r="D44" s="35"/>
@@ -10580,7 +11836,7 @@
       <c r="H44" s="35"/>
       <c r="I44" s="35"/>
     </row>
-    <row r="45" spans="1:9">
+    <row r="45" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B45" s="35"/>
       <c r="C45" s="35"/>
       <c r="D45" s="35"/>
@@ -10590,7 +11846,7 @@
       <c r="H45" s="35"/>
       <c r="I45" s="35"/>
     </row>
-    <row r="46" spans="1:9">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B46" s="35"/>
       <c r="C46" s="35"/>
       <c r="D46" s="35"/>
@@ -10600,7 +11856,7 @@
       <c r="H46" s="35"/>
       <c r="I46" s="35"/>
     </row>
-    <row r="47" spans="1:9">
+    <row r="47" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B47" s="35"/>
       <c r="C47" s="35"/>
       <c r="D47" s="35"/>
@@ -10633,10 +11889,10 @@
   <sheetViews>
     <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="10" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A11" sqref="A11"/>
+      <selection pane="bottomLeft" activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="3.125" style="27" customWidth="1"/>
     <col min="2" max="2" width="9.75" style="27" customWidth="1"/>
@@ -10649,7 +11905,7 @@
     <col min="10" max="16384" width="9" style="27"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="6" customHeight="1">
+    <row r="1" spans="1:9" ht="6" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="31"/>
       <c r="B1" s="31"/>
       <c r="C1" s="31"/>
@@ -10660,35 +11916,35 @@
       <c r="H1" s="36"/>
       <c r="I1" s="36"/>
     </row>
-    <row r="2" spans="1:9" ht="17.25">
+    <row r="2" spans="1:9" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A2" s="26" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="4" spans="1:9">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B4" s="33" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="5" spans="1:9">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B5" s="25" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="6" spans="1:9">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B6" s="25"/>
     </row>
-    <row r="8" spans="1:9">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B8" s="37" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="14.25" thickBot="1">
+    <row r="9" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B9" s="25" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="14.25" thickBot="1">
+    <row r="10" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B10" s="105" t="s">
         <v>41</v>
       </c>
@@ -10714,7 +11970,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="21">
+    <row r="11" spans="1:9" ht="21" x14ac:dyDescent="0.15">
       <c r="A11" s="38"/>
       <c r="B11" s="64" t="s">
         <v>107</v>
@@ -10729,34 +11985,34 @@
       <c r="H11" s="51"/>
       <c r="I11" s="78"/>
     </row>
-    <row r="12" spans="1:9" ht="94.5">
+    <row r="12" spans="1:9" ht="94.5" x14ac:dyDescent="0.15">
       <c r="A12" s="38"/>
       <c r="B12" s="64" t="s">
         <v>109</v>
       </c>
       <c r="C12" s="117" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D12" s="46" t="s">
         <v>110</v>
       </c>
       <c r="E12" s="51" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="F12" s="39" t="s">
+        <v>193</v>
+      </c>
+      <c r="G12" s="39" t="s">
         <v>194</v>
       </c>
-      <c r="G12" s="39" t="s">
+      <c r="H12" s="39" t="s">
         <v>195</v>
-      </c>
-      <c r="H12" s="39" t="s">
-        <v>196</v>
       </c>
       <c r="I12" s="78">
         <v>44995</v>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="52.5">
+    <row r="13" spans="1:9" ht="52.5" x14ac:dyDescent="0.15">
       <c r="A13" s="38"/>
       <c r="B13" s="64"/>
       <c r="C13" s="46"/>
@@ -10765,19 +12021,19 @@
         <v>111</v>
       </c>
       <c r="F13" s="57" t="s">
+        <v>193</v>
+      </c>
+      <c r="G13" s="57" t="s">
         <v>194</v>
       </c>
-      <c r="G13" s="57" t="s">
+      <c r="H13" s="57" t="s">
         <v>195</v>
-      </c>
-      <c r="H13" s="57" t="s">
-        <v>196</v>
       </c>
       <c r="I13" s="76">
         <v>44995</v>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="52.5">
+    <row r="14" spans="1:9" ht="52.5" x14ac:dyDescent="0.15">
       <c r="A14" s="38"/>
       <c r="B14" s="64"/>
       <c r="C14" s="46"/>
@@ -10786,19 +12042,19 @@
         <v>112</v>
       </c>
       <c r="F14" s="57" t="s">
+        <v>193</v>
+      </c>
+      <c r="G14" s="57" t="s">
         <v>194</v>
       </c>
-      <c r="G14" s="57" t="s">
+      <c r="H14" s="57" t="s">
         <v>195</v>
-      </c>
-      <c r="H14" s="57" t="s">
-        <v>196</v>
       </c>
       <c r="I14" s="76">
         <v>44995</v>
       </c>
     </row>
-    <row r="15" spans="1:9">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B15" s="64"/>
       <c r="C15" s="46"/>
       <c r="D15" s="46"/>
@@ -10808,7 +12064,7 @@
       <c r="H15" s="46"/>
       <c r="I15" s="76"/>
     </row>
-    <row r="16" spans="1:9">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B16" s="64"/>
       <c r="C16" s="117"/>
       <c r="D16" s="46"/>
@@ -10818,7 +12074,7 @@
       <c r="H16" s="46"/>
       <c r="I16" s="76"/>
     </row>
-    <row r="17" spans="1:9">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B17" s="64"/>
       <c r="C17" s="46"/>
       <c r="D17" s="46"/>
@@ -10828,7 +12084,7 @@
       <c r="H17" s="46"/>
       <c r="I17" s="76"/>
     </row>
-    <row r="18" spans="1:9">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B18" s="64"/>
       <c r="C18" s="46"/>
       <c r="D18" s="46"/>
@@ -10838,7 +12094,7 @@
       <c r="H18" s="46"/>
       <c r="I18" s="76"/>
     </row>
-    <row r="19" spans="1:9">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B19" s="64"/>
       <c r="C19" s="46"/>
       <c r="D19" s="46"/>
@@ -10848,7 +12104,7 @@
       <c r="H19" s="46"/>
       <c r="I19" s="76"/>
     </row>
-    <row r="20" spans="1:9">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B20" s="64"/>
       <c r="C20" s="46"/>
       <c r="D20" s="46"/>
@@ -10858,7 +12114,7 @@
       <c r="H20" s="46"/>
       <c r="I20" s="76"/>
     </row>
-    <row r="21" spans="1:9">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A21" s="38"/>
       <c r="B21" s="64"/>
       <c r="C21" s="46"/>
@@ -10869,7 +12125,7 @@
       <c r="H21" s="57"/>
       <c r="I21" s="76"/>
     </row>
-    <row r="22" spans="1:9">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A22" s="38"/>
       <c r="B22" s="64"/>
       <c r="C22" s="46"/>
@@ -10880,7 +12136,7 @@
       <c r="H22" s="57"/>
       <c r="I22" s="76"/>
     </row>
-    <row r="23" spans="1:9">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B23" s="64"/>
       <c r="C23" s="46"/>
       <c r="D23" s="46"/>
@@ -10890,7 +12146,7 @@
       <c r="H23" s="46"/>
       <c r="I23" s="76"/>
     </row>
-    <row r="24" spans="1:9">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A24" s="38"/>
       <c r="B24" s="64"/>
       <c r="C24" s="46"/>
@@ -10901,7 +12157,7 @@
       <c r="H24" s="57"/>
       <c r="I24" s="76"/>
     </row>
-    <row r="25" spans="1:9">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A25" s="38"/>
       <c r="B25" s="64"/>
       <c r="C25" s="46"/>
@@ -10912,7 +12168,7 @@
       <c r="H25" s="57"/>
       <c r="I25" s="76"/>
     </row>
-    <row r="26" spans="1:9">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B26" s="64"/>
       <c r="C26" s="46"/>
       <c r="D26" s="46"/>
@@ -10922,7 +12178,7 @@
       <c r="H26" s="46"/>
       <c r="I26" s="76"/>
     </row>
-    <row r="27" spans="1:9">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B27" s="64"/>
       <c r="C27" s="46"/>
       <c r="D27" s="46"/>
@@ -10932,7 +12188,7 @@
       <c r="H27" s="46"/>
       <c r="I27" s="76"/>
     </row>
-    <row r="28" spans="1:9">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B28" s="64"/>
       <c r="C28" s="46"/>
       <c r="D28" s="46"/>
@@ -10942,7 +12198,7 @@
       <c r="H28" s="46"/>
       <c r="I28" s="76"/>
     </row>
-    <row r="29" spans="1:9">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B29" s="64"/>
       <c r="C29" s="46"/>
       <c r="D29" s="46"/>
@@ -10952,7 +12208,7 @@
       <c r="H29" s="46"/>
       <c r="I29" s="76"/>
     </row>
-    <row r="30" spans="1:9">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B30" s="64"/>
       <c r="C30" s="46"/>
       <c r="D30" s="46"/>
@@ -10962,7 +12218,7 @@
       <c r="H30" s="46"/>
       <c r="I30" s="76"/>
     </row>
-    <row r="31" spans="1:9">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B31" s="64"/>
       <c r="C31" s="46"/>
       <c r="D31" s="46"/>
@@ -10972,7 +12228,7 @@
       <c r="H31" s="46"/>
       <c r="I31" s="76"/>
     </row>
-    <row r="32" spans="1:9">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B32" s="64"/>
       <c r="C32" s="117"/>
       <c r="D32" s="46"/>
@@ -10982,7 +12238,7 @@
       <c r="H32" s="46"/>
       <c r="I32" s="76"/>
     </row>
-    <row r="33" spans="1:9">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B33" s="64"/>
       <c r="C33" s="46"/>
       <c r="D33" s="46"/>
@@ -10992,7 +12248,7 @@
       <c r="H33" s="46"/>
       <c r="I33" s="76"/>
     </row>
-    <row r="34" spans="1:9">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B34" s="64"/>
       <c r="C34" s="46"/>
       <c r="D34" s="46"/>
@@ -11002,7 +12258,7 @@
       <c r="H34" s="46"/>
       <c r="I34" s="76"/>
     </row>
-    <row r="35" spans="1:9">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B35" s="68"/>
       <c r="C35" s="46"/>
       <c r="D35" s="46"/>
@@ -11012,7 +12268,7 @@
       <c r="H35" s="46"/>
       <c r="I35" s="76"/>
     </row>
-    <row r="36" spans="1:9">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B36" s="68"/>
       <c r="C36" s="46"/>
       <c r="D36" s="46"/>
@@ -11022,7 +12278,7 @@
       <c r="H36" s="46"/>
       <c r="I36" s="76"/>
     </row>
-    <row r="37" spans="1:9" ht="14.25" thickBot="1">
+    <row r="37" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B37" s="72"/>
       <c r="C37" s="47"/>
       <c r="D37" s="47"/>
@@ -11032,7 +12288,7 @@
       <c r="H37" s="47"/>
       <c r="I37" s="77"/>
     </row>
-    <row r="38" spans="1:9">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B38" s="35"/>
       <c r="C38" s="35"/>
       <c r="D38" s="35"/>
@@ -11042,7 +12298,7 @@
       <c r="H38" s="35"/>
       <c r="I38" s="35"/>
     </row>
-    <row r="39" spans="1:9">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B39" s="35"/>
       <c r="C39" s="35"/>
       <c r="D39" s="35"/>
@@ -11052,7 +12308,7 @@
       <c r="H39" s="35"/>
       <c r="I39" s="35"/>
     </row>
-    <row r="40" spans="1:9" ht="6" customHeight="1">
+    <row r="40" spans="1:9" ht="6" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A40" s="28"/>
       <c r="B40" s="28"/>
       <c r="C40" s="28"/>
@@ -11062,7 +12318,7 @@
       <c r="G40" s="35"/>
       <c r="H40" s="35"/>
     </row>
-    <row r="41" spans="1:9" ht="14.25">
+    <row r="41" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A41" s="32" t="s">
         <v>49</v>
       </c>
@@ -11072,7 +12328,7 @@
       <c r="H41" s="35"/>
       <c r="I41" s="35"/>
     </row>
-    <row r="42" spans="1:9">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B42" s="35"/>
       <c r="C42" s="35"/>
       <c r="D42" s="35"/>
@@ -11082,7 +12338,7 @@
       <c r="H42" s="35"/>
       <c r="I42" s="35"/>
     </row>
-    <row r="43" spans="1:9">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B43" s="126" t="s">
         <v>87</v>
       </c>
@@ -11094,7 +12350,7 @@
       <c r="H43" s="35"/>
       <c r="I43" s="35"/>
     </row>
-    <row r="44" spans="1:9">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B44" s="35"/>
       <c r="C44" s="35"/>
       <c r="D44" s="35"/>
@@ -11104,7 +12360,7 @@
       <c r="H44" s="35"/>
       <c r="I44" s="35"/>
     </row>
-    <row r="45" spans="1:9">
+    <row r="45" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B45" s="35"/>
       <c r="C45" s="35"/>
       <c r="D45" s="35"/>
@@ -11114,7 +12370,7 @@
       <c r="H45" s="35"/>
       <c r="I45" s="35"/>
     </row>
-    <row r="46" spans="1:9">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B46" s="35"/>
       <c r="C46" s="35"/>
       <c r="D46" s="35"/>
@@ -11124,7 +12380,7 @@
       <c r="H46" s="35"/>
       <c r="I46" s="35"/>
     </row>
-    <row r="47" spans="1:9">
+    <row r="47" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B47" s="35"/>
       <c r="C47" s="35"/>
       <c r="D47" s="35"/>
@@ -11160,7 +12416,7 @@
       <selection pane="bottomLeft" activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="3.125" style="27" customWidth="1"/>
     <col min="2" max="2" width="9.75" style="27" customWidth="1"/>
@@ -11173,7 +12429,7 @@
     <col min="10" max="16384" width="9" style="27"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="6" customHeight="1">
+    <row r="1" spans="1:9" ht="6" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="31"/>
       <c r="B1" s="31"/>
       <c r="C1" s="31"/>
@@ -11184,35 +12440,35 @@
       <c r="H1" s="36"/>
       <c r="I1" s="36"/>
     </row>
-    <row r="2" spans="1:9" ht="17.25">
+    <row r="2" spans="1:9" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A2" s="26" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="4" spans="1:9">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B4" s="33" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="5" spans="1:9">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B5" s="25" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="6" spans="1:9">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B6" s="25"/>
     </row>
-    <row r="8" spans="1:9">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B8" s="37" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="14.25" thickBot="1">
+    <row r="9" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B9" s="25" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="14.25" thickBot="1">
+    <row r="10" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B10" s="105" t="s">
         <v>41</v>
       </c>
@@ -11238,7 +12494,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="21">
+    <row r="11" spans="1:9" ht="21" x14ac:dyDescent="0.15">
       <c r="A11" s="38"/>
       <c r="B11" s="64" t="s">
         <v>113</v>
@@ -11253,7 +12509,7 @@
       <c r="H11" s="51"/>
       <c r="I11" s="78"/>
     </row>
-    <row r="12" spans="1:9" ht="84">
+    <row r="12" spans="1:9" ht="84" x14ac:dyDescent="0.15">
       <c r="A12" s="38"/>
       <c r="B12" s="64" t="s">
         <v>115</v>
@@ -11280,7 +12536,7 @@
         <v>44944</v>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="52.5">
+    <row r="13" spans="1:9" ht="52.5" x14ac:dyDescent="0.15">
       <c r="A13" s="38"/>
       <c r="B13" s="64"/>
       <c r="C13" s="46"/>
@@ -11301,7 +12557,7 @@
         <v>44944</v>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="52.5">
+    <row r="14" spans="1:9" ht="52.5" x14ac:dyDescent="0.15">
       <c r="A14" s="38"/>
       <c r="B14" s="64"/>
       <c r="C14" s="46"/>
@@ -11322,7 +12578,7 @@
         <v>44944</v>
       </c>
     </row>
-    <row r="15" spans="1:9" ht="21">
+    <row r="15" spans="1:9" ht="21" x14ac:dyDescent="0.15">
       <c r="B15" s="64" t="s">
         <v>116</v>
       </c>
@@ -11336,7 +12592,7 @@
       <c r="H15" s="46"/>
       <c r="I15" s="76"/>
     </row>
-    <row r="16" spans="1:9" ht="84">
+    <row r="16" spans="1:9" ht="84" x14ac:dyDescent="0.15">
       <c r="B16" s="64" t="s">
         <v>118</v>
       </c>
@@ -11362,7 +12618,7 @@
         <v>44944</v>
       </c>
     </row>
-    <row r="17" spans="1:9" ht="21">
+    <row r="17" spans="1:9" ht="21" x14ac:dyDescent="0.15">
       <c r="B17" s="64" t="s">
         <v>119</v>
       </c>
@@ -11376,7 +12632,7 @@
       <c r="H17" s="46"/>
       <c r="I17" s="76"/>
     </row>
-    <row r="18" spans="1:9" ht="84">
+    <row r="18" spans="1:9" ht="84" x14ac:dyDescent="0.15">
       <c r="B18" s="64" t="s">
         <v>121</v>
       </c>
@@ -11402,7 +12658,7 @@
         <v>44944</v>
       </c>
     </row>
-    <row r="19" spans="1:9" ht="21">
+    <row r="19" spans="1:9" ht="21" x14ac:dyDescent="0.15">
       <c r="B19" s="64" t="s">
         <v>122</v>
       </c>
@@ -11416,7 +12672,7 @@
       <c r="H19" s="46"/>
       <c r="I19" s="76"/>
     </row>
-    <row r="20" spans="1:9" ht="84">
+    <row r="20" spans="1:9" ht="84" x14ac:dyDescent="0.15">
       <c r="B20" s="64" t="s">
         <v>124</v>
       </c>
@@ -11442,7 +12698,7 @@
         <v>44944</v>
       </c>
     </row>
-    <row r="21" spans="1:9">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B21" s="64"/>
       <c r="C21" s="46"/>
       <c r="D21" s="46"/>
@@ -11452,7 +12708,7 @@
       <c r="H21" s="46"/>
       <c r="I21" s="76"/>
     </row>
-    <row r="22" spans="1:9">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B22" s="64"/>
       <c r="C22" s="46"/>
       <c r="D22" s="46"/>
@@ -11462,7 +12718,7 @@
       <c r="H22" s="46"/>
       <c r="I22" s="76"/>
     </row>
-    <row r="23" spans="1:9">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B23" s="64"/>
       <c r="C23" s="46"/>
       <c r="D23" s="46"/>
@@ -11472,7 +12728,7 @@
       <c r="H23" s="46"/>
       <c r="I23" s="76"/>
     </row>
-    <row r="24" spans="1:9">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A24" s="38"/>
       <c r="B24" s="64"/>
       <c r="C24" s="46"/>
@@ -11483,7 +12739,7 @@
       <c r="H24" s="57"/>
       <c r="I24" s="76"/>
     </row>
-    <row r="25" spans="1:9">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A25" s="38"/>
       <c r="B25" s="64"/>
       <c r="C25" s="46"/>
@@ -11494,7 +12750,7 @@
       <c r="H25" s="57"/>
       <c r="I25" s="76"/>
     </row>
-    <row r="26" spans="1:9">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B26" s="64"/>
       <c r="C26" s="46"/>
       <c r="D26" s="46"/>
@@ -11504,7 +12760,7 @@
       <c r="H26" s="46"/>
       <c r="I26" s="76"/>
     </row>
-    <row r="27" spans="1:9">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A27" s="38"/>
       <c r="B27" s="64"/>
       <c r="C27" s="46"/>
@@ -11515,7 +12771,7 @@
       <c r="H27" s="57"/>
       <c r="I27" s="76"/>
     </row>
-    <row r="28" spans="1:9">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A28" s="38"/>
       <c r="B28" s="64"/>
       <c r="C28" s="46"/>
@@ -11526,7 +12782,7 @@
       <c r="H28" s="57"/>
       <c r="I28" s="76"/>
     </row>
-    <row r="29" spans="1:9">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B29" s="64"/>
       <c r="C29" s="46"/>
       <c r="D29" s="46"/>
@@ -11536,7 +12792,7 @@
       <c r="H29" s="46"/>
       <c r="I29" s="76"/>
     </row>
-    <row r="30" spans="1:9">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B30" s="64"/>
       <c r="C30" s="46"/>
       <c r="D30" s="46"/>
@@ -11546,7 +12802,7 @@
       <c r="H30" s="46"/>
       <c r="I30" s="76"/>
     </row>
-    <row r="31" spans="1:9">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B31" s="64"/>
       <c r="C31" s="46"/>
       <c r="D31" s="46"/>
@@ -11556,7 +12812,7 @@
       <c r="H31" s="46"/>
       <c r="I31" s="76"/>
     </row>
-    <row r="32" spans="1:9">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B32" s="64"/>
       <c r="C32" s="46"/>
       <c r="D32" s="46"/>
@@ -11566,7 +12822,7 @@
       <c r="H32" s="46"/>
       <c r="I32" s="76"/>
     </row>
-    <row r="33" spans="1:9">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B33" s="64"/>
       <c r="C33" s="46"/>
       <c r="D33" s="46"/>
@@ -11576,7 +12832,7 @@
       <c r="H33" s="46"/>
       <c r="I33" s="76"/>
     </row>
-    <row r="34" spans="1:9">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B34" s="64"/>
       <c r="C34" s="46"/>
       <c r="D34" s="46"/>
@@ -11586,7 +12842,7 @@
       <c r="H34" s="46"/>
       <c r="I34" s="76"/>
     </row>
-    <row r="35" spans="1:9">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B35" s="64"/>
       <c r="C35" s="117"/>
       <c r="D35" s="46"/>
@@ -11596,7 +12852,7 @@
       <c r="H35" s="46"/>
       <c r="I35" s="76"/>
     </row>
-    <row r="36" spans="1:9">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B36" s="64"/>
       <c r="C36" s="46"/>
       <c r="D36" s="46"/>
@@ -11606,7 +12862,7 @@
       <c r="H36" s="46"/>
       <c r="I36" s="76"/>
     </row>
-    <row r="37" spans="1:9">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B37" s="68"/>
       <c r="C37" s="46"/>
       <c r="D37" s="46"/>
@@ -11616,7 +12872,7 @@
       <c r="H37" s="46"/>
       <c r="I37" s="76"/>
     </row>
-    <row r="38" spans="1:9">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B38" s="68"/>
       <c r="C38" s="46"/>
       <c r="D38" s="46"/>
@@ -11626,7 +12882,7 @@
       <c r="H38" s="46"/>
       <c r="I38" s="76"/>
     </row>
-    <row r="39" spans="1:9">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B39" s="68"/>
       <c r="C39" s="46"/>
       <c r="D39" s="46"/>
@@ -11636,7 +12892,7 @@
       <c r="H39" s="46"/>
       <c r="I39" s="76"/>
     </row>
-    <row r="40" spans="1:9" ht="14.25" thickBot="1">
+    <row r="40" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B40" s="72"/>
       <c r="C40" s="47"/>
       <c r="D40" s="47"/>
@@ -11646,7 +12902,7 @@
       <c r="H40" s="47"/>
       <c r="I40" s="77"/>
     </row>
-    <row r="41" spans="1:9">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B41" s="35"/>
       <c r="C41" s="35"/>
       <c r="D41" s="35"/>
@@ -11656,7 +12912,7 @@
       <c r="H41" s="35"/>
       <c r="I41" s="35"/>
     </row>
-    <row r="42" spans="1:9">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B42" s="35"/>
       <c r="C42" s="35"/>
       <c r="D42" s="35"/>
@@ -11666,7 +12922,7 @@
       <c r="H42" s="35"/>
       <c r="I42" s="35"/>
     </row>
-    <row r="43" spans="1:9" ht="6" customHeight="1">
+    <row r="43" spans="1:9" ht="6" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A43" s="28"/>
       <c r="B43" s="28"/>
       <c r="C43" s="28"/>
@@ -11676,7 +12932,7 @@
       <c r="G43" s="35"/>
       <c r="H43" s="35"/>
     </row>
-    <row r="44" spans="1:9" ht="14.25">
+    <row r="44" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A44" s="32" t="s">
         <v>49</v>
       </c>
@@ -11686,7 +12942,7 @@
       <c r="H44" s="35"/>
       <c r="I44" s="35"/>
     </row>
-    <row r="45" spans="1:9">
+    <row r="45" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B45" s="35"/>
       <c r="C45" s="35"/>
       <c r="D45" s="35"/>
@@ -11696,7 +12952,7 @@
       <c r="H45" s="35"/>
       <c r="I45" s="35"/>
     </row>
-    <row r="46" spans="1:9">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B46" s="35"/>
       <c r="C46" s="35"/>
       <c r="D46" s="35"/>
@@ -11706,7 +12962,7 @@
       <c r="H46" s="35"/>
       <c r="I46" s="35"/>
     </row>
-    <row r="47" spans="1:9">
+    <row r="47" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B47" s="35"/>
       <c r="C47" s="35"/>
       <c r="D47" s="35"/>
@@ -11716,7 +12972,7 @@
       <c r="H47" s="35"/>
       <c r="I47" s="35"/>
     </row>
-    <row r="48" spans="1:9">
+    <row r="48" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B48" s="35"/>
       <c r="C48" s="35"/>
       <c r="D48" s="35"/>
@@ -11726,7 +12982,7 @@
       <c r="H48" s="35"/>
       <c r="I48" s="35"/>
     </row>
-    <row r="49" spans="2:9">
+    <row r="49" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B49" s="35"/>
       <c r="C49" s="35"/>
       <c r="D49" s="35"/>
@@ -11736,7 +12992,7 @@
       <c r="H49" s="35"/>
       <c r="I49" s="35"/>
     </row>
-    <row r="50" spans="2:9">
+    <row r="50" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B50" s="35"/>
       <c r="C50" s="35"/>
       <c r="D50" s="35"/>
@@ -11772,7 +13028,7 @@
       <selection pane="bottomLeft" activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="3.125" style="27" customWidth="1"/>
     <col min="2" max="2" width="9.75" style="27" customWidth="1"/>
@@ -11785,7 +13041,7 @@
     <col min="10" max="16384" width="9" style="27"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="6" customHeight="1">
+    <row r="1" spans="1:9" ht="6" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="31"/>
       <c r="B1" s="31"/>
       <c r="C1" s="31"/>
@@ -11796,35 +13052,35 @@
       <c r="H1" s="36"/>
       <c r="I1" s="36"/>
     </row>
-    <row r="2" spans="1:9" ht="17.25">
+    <row r="2" spans="1:9" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A2" s="26" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="4" spans="1:9">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B4" s="33" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="5" spans="1:9">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B5" s="25" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="6" spans="1:9">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B6" s="25"/>
     </row>
-    <row r="8" spans="1:9">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B8" s="37" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="14.25" thickBot="1">
+    <row r="9" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B9" s="25" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="14.25" thickBot="1">
+    <row r="10" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B10" s="105" t="s">
         <v>41</v>
       </c>
@@ -11850,7 +13106,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="21">
+    <row r="11" spans="1:9" ht="21" x14ac:dyDescent="0.15">
       <c r="A11" s="38"/>
       <c r="B11" s="64" t="s">
         <v>133</v>
@@ -11865,7 +13121,7 @@
       <c r="H11" s="118"/>
       <c r="I11" s="125"/>
     </row>
-    <row r="12" spans="1:9" ht="84">
+    <row r="12" spans="1:9" ht="84" x14ac:dyDescent="0.15">
       <c r="B12" s="64" t="s">
         <v>135</v>
       </c>
@@ -11891,7 +13147,7 @@
         <v>44944</v>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="52.5">
+    <row r="13" spans="1:9" ht="52.5" x14ac:dyDescent="0.15">
       <c r="B13" s="64"/>
       <c r="C13" s="46"/>
       <c r="D13" s="46"/>
@@ -11911,7 +13167,7 @@
         <v>44944</v>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="42">
+    <row r="14" spans="1:9" ht="42" x14ac:dyDescent="0.15">
       <c r="B14" s="64"/>
       <c r="C14" s="46"/>
       <c r="D14" s="46"/>
@@ -11931,7 +13187,7 @@
         <v>44944</v>
       </c>
     </row>
-    <row r="15" spans="1:9" ht="52.5">
+    <row r="15" spans="1:9" ht="52.5" x14ac:dyDescent="0.15">
       <c r="B15" s="64"/>
       <c r="C15" s="46"/>
       <c r="D15" s="46"/>
@@ -11951,7 +13207,7 @@
         <v>44944</v>
       </c>
     </row>
-    <row r="16" spans="1:9" ht="21">
+    <row r="16" spans="1:9" ht="21" x14ac:dyDescent="0.15">
       <c r="B16" s="64" t="s">
         <v>137</v>
       </c>
@@ -11965,7 +13221,7 @@
       <c r="H16" s="46"/>
       <c r="I16" s="76"/>
     </row>
-    <row r="17" spans="1:9" ht="84">
+    <row r="17" spans="1:9" ht="84" x14ac:dyDescent="0.15">
       <c r="B17" s="64" t="s">
         <v>139</v>
       </c>
@@ -11991,7 +13247,7 @@
         <v>44944</v>
       </c>
     </row>
-    <row r="18" spans="1:9" ht="21">
+    <row r="18" spans="1:9" ht="21" x14ac:dyDescent="0.15">
       <c r="A18" s="38"/>
       <c r="B18" s="64" t="s">
         <v>140</v>
@@ -12006,7 +13262,7 @@
       <c r="H18" s="57"/>
       <c r="I18" s="76"/>
     </row>
-    <row r="19" spans="1:9" ht="84">
+    <row r="19" spans="1:9" ht="84" x14ac:dyDescent="0.15">
       <c r="A19" s="38"/>
       <c r="B19" s="64" t="s">
         <v>142</v>
@@ -12033,7 +13289,7 @@
         <v>44944</v>
       </c>
     </row>
-    <row r="20" spans="1:9">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B20" s="64"/>
       <c r="C20" s="46"/>
       <c r="D20" s="119"/>
@@ -12043,7 +13299,7 @@
       <c r="H20" s="46"/>
       <c r="I20" s="76"/>
     </row>
-    <row r="21" spans="1:9">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A21" s="38"/>
       <c r="B21" s="64"/>
       <c r="C21" s="46"/>
@@ -12054,7 +13310,7 @@
       <c r="H21" s="57"/>
       <c r="I21" s="76"/>
     </row>
-    <row r="22" spans="1:9">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A22" s="38"/>
       <c r="B22" s="64"/>
       <c r="C22" s="46"/>
@@ -12065,7 +13321,7 @@
       <c r="H22" s="57"/>
       <c r="I22" s="76"/>
     </row>
-    <row r="23" spans="1:9">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B23" s="64"/>
       <c r="C23" s="46"/>
       <c r="D23" s="119"/>
@@ -12075,7 +13331,7 @@
       <c r="H23" s="46"/>
       <c r="I23" s="76"/>
     </row>
-    <row r="24" spans="1:9">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B24" s="64"/>
       <c r="C24" s="46"/>
       <c r="D24" s="46"/>
@@ -12085,7 +13341,7 @@
       <c r="H24" s="46"/>
       <c r="I24" s="76"/>
     </row>
-    <row r="25" spans="1:9">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B25" s="64"/>
       <c r="C25" s="46"/>
       <c r="D25" s="46"/>
@@ -12095,7 +13351,7 @@
       <c r="H25" s="46"/>
       <c r="I25" s="76"/>
     </row>
-    <row r="26" spans="1:9">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B26" s="64"/>
       <c r="C26" s="46"/>
       <c r="D26" s="46"/>
@@ -12105,7 +13361,7 @@
       <c r="H26" s="46"/>
       <c r="I26" s="76"/>
     </row>
-    <row r="27" spans="1:9">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B27" s="64"/>
       <c r="C27" s="46"/>
       <c r="D27" s="46"/>
@@ -12115,7 +13371,7 @@
       <c r="H27" s="46"/>
       <c r="I27" s="76"/>
     </row>
-    <row r="28" spans="1:9">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B28" s="64"/>
       <c r="C28" s="46"/>
       <c r="D28" s="46"/>
@@ -12125,7 +13381,7 @@
       <c r="H28" s="46"/>
       <c r="I28" s="76"/>
     </row>
-    <row r="29" spans="1:9">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B29" s="64"/>
       <c r="C29" s="117"/>
       <c r="D29" s="46"/>
@@ -12135,7 +13391,7 @@
       <c r="H29" s="46"/>
       <c r="I29" s="76"/>
     </row>
-    <row r="30" spans="1:9">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B30" s="64"/>
       <c r="C30" s="46"/>
       <c r="D30" s="46"/>
@@ -12145,7 +13401,7 @@
       <c r="H30" s="46"/>
       <c r="I30" s="76"/>
     </row>
-    <row r="31" spans="1:9">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B31" s="68"/>
       <c r="C31" s="46"/>
       <c r="D31" s="46"/>
@@ -12155,7 +13411,7 @@
       <c r="H31" s="46"/>
       <c r="I31" s="76"/>
     </row>
-    <row r="32" spans="1:9">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B32" s="68"/>
       <c r="C32" s="46"/>
       <c r="D32" s="46"/>
@@ -12165,7 +13421,7 @@
       <c r="H32" s="46"/>
       <c r="I32" s="76"/>
     </row>
-    <row r="33" spans="1:9">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B33" s="68"/>
       <c r="C33" s="46"/>
       <c r="D33" s="46"/>
@@ -12175,7 +13431,7 @@
       <c r="H33" s="46"/>
       <c r="I33" s="76"/>
     </row>
-    <row r="34" spans="1:9" ht="14.25" thickBot="1">
+    <row r="34" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B34" s="72"/>
       <c r="C34" s="47"/>
       <c r="D34" s="47"/>
@@ -12185,7 +13441,7 @@
       <c r="H34" s="47"/>
       <c r="I34" s="77"/>
     </row>
-    <row r="35" spans="1:9">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B35" s="35"/>
       <c r="C35" s="35"/>
       <c r="D35" s="35"/>
@@ -12195,7 +13451,7 @@
       <c r="H35" s="35"/>
       <c r="I35" s="35"/>
     </row>
-    <row r="36" spans="1:9">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B36" s="35"/>
       <c r="C36" s="35"/>
       <c r="D36" s="35"/>
@@ -12205,7 +13461,7 @@
       <c r="H36" s="35"/>
       <c r="I36" s="35"/>
     </row>
-    <row r="37" spans="1:9" ht="6" customHeight="1">
+    <row r="37" spans="1:9" ht="6" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A37" s="28"/>
       <c r="B37" s="28"/>
       <c r="C37" s="28"/>
@@ -12215,7 +13471,7 @@
       <c r="G37" s="35"/>
       <c r="H37" s="35"/>
     </row>
-    <row r="38" spans="1:9" ht="14.25">
+    <row r="38" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A38" s="32" t="s">
         <v>49</v>
       </c>
@@ -12225,7 +13481,7 @@
       <c r="H38" s="35"/>
       <c r="I38" s="35"/>
     </row>
-    <row r="39" spans="1:9">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B39" s="35"/>
       <c r="C39" s="35"/>
       <c r="D39" s="35"/>
@@ -12235,7 +13491,7 @@
       <c r="H39" s="35"/>
       <c r="I39" s="35"/>
     </row>
-    <row r="40" spans="1:9">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B40" s="35"/>
       <c r="C40" s="35"/>
       <c r="D40" s="35"/>
@@ -12245,7 +13501,7 @@
       <c r="H40" s="35"/>
       <c r="I40" s="35"/>
     </row>
-    <row r="41" spans="1:9">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B41" s="35"/>
       <c r="C41" s="35"/>
       <c r="D41" s="35"/>
@@ -12255,7 +13511,7 @@
       <c r="H41" s="35"/>
       <c r="I41" s="35"/>
     </row>
-    <row r="42" spans="1:9">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B42" s="35"/>
       <c r="C42" s="35"/>
       <c r="D42" s="35"/>
@@ -12265,7 +13521,7 @@
       <c r="H42" s="35"/>
       <c r="I42" s="35"/>
     </row>
-    <row r="43" spans="1:9">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B43" s="35"/>
       <c r="C43" s="35"/>
       <c r="D43" s="35"/>
@@ -12275,7 +13531,7 @@
       <c r="H43" s="35"/>
       <c r="I43" s="35"/>
     </row>
-    <row r="44" spans="1:9">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B44" s="35"/>
       <c r="C44" s="35"/>
       <c r="D44" s="35"/>
